--- a/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/食品饮料行业/食品_调味品_肉制品_休闲食品.xlsx
+++ b/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/食品饮料行业/食品_调味品_肉制品_休闲食品.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27240" windowHeight="13340" activeTab="2"/>
+    <workbookView windowWidth="27240" windowHeight="13360"/>
   </bookViews>
   <sheets>
     <sheet name="资产表分析" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="462">
   <si>
     <t>名称</t>
   </si>
@@ -255,6 +255,9 @@
     <t>现象</t>
   </si>
   <si>
+    <t>核心竞争力</t>
+  </si>
+  <si>
     <t>固定资产变化情况</t>
   </si>
   <si>
@@ -354,6 +357,13 @@
 8.2018年货币资金大量增加：增加多达40亿。
 9.年初价值4千万的库存股消失、其他综合收益减少4千多万、未分配利润增加近20亿。
 </t>
+  </si>
+  <si>
+    <t>产能规模、销售网络、管理能力
+1.产能已突破400万吨。
+2.经销商销售网络已建立覆盖全国所有地级市以上地区，正在向更多的村镇下沉；同时，向C端和海外寻求突破。
+3.已建立起各种信息化的管理系统，正向智能化的灯塔工厂迈进。
+4.建立内部各业务板块良性竞争的文化氛围，寻求各业务板块的突破。</t>
   </si>
   <si>
     <t>净经营性投入资本回报率在70%左右</t>
@@ -730,6 +740,9 @@
   </si>
   <si>
     <t>股份数量</t>
+  </si>
+  <si>
+    <t>股份数量同比增长</t>
   </si>
   <si>
     <t>股东数量</t>
@@ -2574,11 +2587,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2629,8 +2642,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2644,88 +2741,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2736,8 +2755,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2753,14 +2773,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2895,139 +2908,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3039,13 +2920,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3063,13 +2944,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3214,15 +3227,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3238,12 +3242,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3264,17 +3281,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3283,152 +3296,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="48" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="44" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3945,7 +3958,13 @@
     <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4279,14 +4298,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:DE182"/>
+  <dimension ref="A1:DF182"/>
   <sheetViews>
-    <sheetView zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="CI3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="DB3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CQ8" sqref="CQ8"/>
+      <selection pane="bottomRight" activeCell="DC3" sqref="DC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -4363,13 +4382,13 @@
     <col min="103" max="103" width="28.4615384615385" style="72" customWidth="1"/>
     <col min="104" max="104" width="20.375" style="120" customWidth="1"/>
     <col min="105" max="105" width="30.2884615384615" style="121" customWidth="1"/>
-    <col min="106" max="106" width="98.5576923076923" customWidth="1"/>
-    <col min="107" max="107" width="20" customWidth="1"/>
-    <col min="108" max="108" width="47.5961538461538" customWidth="1"/>
-    <col min="109" max="109" width="38.7692307692308" customWidth="1"/>
+    <col min="106" max="107" width="98.5576923076923" customWidth="1"/>
+    <col min="108" max="108" width="20" customWidth="1"/>
+    <col min="109" max="109" width="47.5961538461538" customWidth="1"/>
+    <col min="110" max="110" width="38.7692307692308" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:109">
+    <row r="1" spans="1:110">
       <c r="A1" s="5"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -4628,17 +4647,20 @@
       <c r="DB1" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="DC1" s="4" t="s">
+      <c r="DC1" s="172" t="s">
         <v>75</v>
       </c>
-      <c r="DD1" s="7" t="s">
+      <c r="DD1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DE1" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" ht="41" customHeight="1" spans="1:109">
+      <c r="DF1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" ht="41" customHeight="1" spans="1:110">
       <c r="A2" s="5"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -4655,74 +4677,74 @@
       <c r="N2" s="130"/>
       <c r="O2" s="131"/>
       <c r="P2" s="132" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="132" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R2" s="132" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S2" s="132" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T2" s="132" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U2" s="132" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V2" s="132" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W2" s="132" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X2" s="132" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y2" s="132" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z2" s="130"/>
       <c r="AA2" s="133" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AB2" s="133" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="133" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AD2" s="133" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AE2" s="133" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF2" s="133" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG2" s="134" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH2" s="134" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AI2" s="134" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ2" s="134" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK2" s="134" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AL2" s="135" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AM2" s="135" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AN2" s="130"/>
       <c r="AO2" s="136"/>
@@ -4789,18 +4811,19 @@
       <c r="CX2" s="132"/>
       <c r="CY2" s="132"/>
       <c r="CZ2" s="170"/>
-      <c r="DA2" s="172"/>
+      <c r="DA2" s="173"/>
       <c r="DB2" s="25"/>
-      <c r="DC2" s="4"/>
+      <c r="DC2" s="174"/>
       <c r="DD2" s="4"/>
-      <c r="DE2" s="1"/>
-    </row>
-    <row r="3" spans="1:109">
+      <c r="DE2" s="4"/>
+      <c r="DF2" s="1"/>
+    </row>
+    <row r="3" ht="101" spans="1:110">
       <c r="A3" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C3" s="25">
         <v>2022</v>
@@ -4810,7 +4833,7 @@
         <v>368853000000</v>
       </c>
       <c r="E3" s="122" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F3" s="126">
         <v>4633833787</v>
@@ -5091,20 +5114,23 @@
         <f t="shared" ref="CZ3:CZ12" si="13">(CT3+CU3+CV3+CW3)/CY3</f>
         <v>0.123393307902964</v>
       </c>
-      <c r="DA3" s="173">
+      <c r="DA3" s="175">
         <f>Z3/(Z3+L3)*CZ3*(1-0.25)+(L3/(Z3+L3))*0.09</f>
         <v>0.0900239234798535</v>
       </c>
-      <c r="DB3" s="174" t="s">
-        <v>104</v>
-      </c>
-      <c r="DC3" s="5"/>
+      <c r="DB3" s="176" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC3" s="176" t="s">
+        <v>106</v>
+      </c>
       <c r="DD3" s="5"/>
-      <c r="DE3" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:109">
+      <c r="DE3" s="5"/>
+      <c r="DF3" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:110">
       <c r="A4" s="4"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25">
@@ -5115,7 +5141,7 @@
         <v>442784000000</v>
       </c>
       <c r="E4" s="122" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F4" s="126">
         <v>4212576170</v>
@@ -5394,16 +5420,17 @@
         <f t="shared" si="13"/>
         <v>0.0824116617059466</v>
       </c>
-      <c r="DA4" s="173">
+      <c r="DA4" s="175">
         <f t="shared" ref="DA4:DA13" si="38">Z4/(Z4+L4)*CZ4*(1-0.25)+(L4/(Z4+L4))*0.09</f>
         <v>0.0898109302117938</v>
       </c>
-      <c r="DB4" s="174"/>
-      <c r="DC4" s="5"/>
+      <c r="DB4" s="176"/>
+      <c r="DC4" s="176"/>
       <c r="DD4" s="5"/>
-      <c r="DE4" s="1"/>
-    </row>
-    <row r="5" spans="1:109">
+      <c r="DE4" s="5"/>
+      <c r="DF4" s="1"/>
+    </row>
+    <row r="5" spans="1:110">
       <c r="A5" s="4"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25">
@@ -5414,7 +5441,7 @@
         <v>649838000000</v>
       </c>
       <c r="E5" s="122" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F5" s="126">
         <v>3240443208</v>
@@ -5689,16 +5716,17 @@
         <f t="shared" si="13"/>
         <v>0.136719783244207</v>
       </c>
-      <c r="DA5" s="173">
+      <c r="DA5" s="175">
         <f t="shared" si="38"/>
         <v>0.0900573182236805</v>
       </c>
-      <c r="DB5" s="174"/>
-      <c r="DC5" s="5"/>
+      <c r="DB5" s="176"/>
+      <c r="DC5" s="176"/>
       <c r="DD5" s="5"/>
-      <c r="DE5" s="1"/>
-    </row>
-    <row r="6" spans="1:109">
+      <c r="DE5" s="5"/>
+      <c r="DF5" s="1"/>
+    </row>
+    <row r="6" spans="1:110">
       <c r="A6" s="4"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25">
@@ -5709,7 +5737,7 @@
         <v>290317000000</v>
       </c>
       <c r="E6" s="122" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F6" s="83">
         <v>2700369340</v>
@@ -5984,16 +6012,17 @@
         <f t="shared" si="13"/>
         <v>0.100780809693878</v>
       </c>
-      <c r="DA6" s="173">
+      <c r="DA6" s="175">
         <f t="shared" si="38"/>
         <v>0.0899829983220982</v>
       </c>
-      <c r="DB6" s="174"/>
-      <c r="DC6" s="5"/>
+      <c r="DB6" s="176"/>
+      <c r="DC6" s="176"/>
       <c r="DD6" s="5"/>
-      <c r="DE6" s="1"/>
-    </row>
-    <row r="7" spans="1:109">
+      <c r="DE6" s="5"/>
+      <c r="DF6" s="1"/>
+    </row>
+    <row r="7" spans="1:110">
       <c r="A7" s="4"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25">
@@ -6004,7 +6033,7 @@
         <v>185785000000</v>
       </c>
       <c r="E7" s="122" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F7" s="83">
         <v>2700369340</v>
@@ -6276,16 +6305,17 @@
         <f t="shared" si="13"/>
         <v>0.0411124459183674</v>
       </c>
-      <c r="DA7" s="173">
+      <c r="DA7" s="175">
         <f t="shared" si="38"/>
         <v>0.0899166167029554</v>
       </c>
-      <c r="DB7" s="174"/>
-      <c r="DC7" s="5"/>
+      <c r="DB7" s="176"/>
+      <c r="DC7" s="176"/>
       <c r="DD7" s="5"/>
-      <c r="DE7" s="1"/>
-    </row>
-    <row r="8" spans="1:109">
+      <c r="DE7" s="5"/>
+      <c r="DF7" s="1"/>
+    </row>
+    <row r="8" spans="1:110">
       <c r="A8" s="4"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25">
@@ -6296,7 +6326,7 @@
         <v>145325000000</v>
       </c>
       <c r="E8" s="122" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F8" s="83">
         <v>2701206700</v>
@@ -6571,16 +6601,17 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="DA8" s="173">
+      <c r="DA8" s="175">
         <f>0+(L8/(Z8+L8))*0.09</f>
         <v>0.09</v>
       </c>
-      <c r="DB8" s="174"/>
-      <c r="DC8" s="5"/>
+      <c r="DB8" s="176"/>
+      <c r="DC8" s="176"/>
       <c r="DD8" s="5"/>
-      <c r="DE8" s="1"/>
-    </row>
-    <row r="9" spans="1:109">
+      <c r="DE8" s="5"/>
+      <c r="DF8" s="1"/>
+    </row>
+    <row r="9" spans="1:110">
       <c r="A9" s="4"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25">
@@ -6591,7 +6622,7 @@
         <v>79336000000</v>
       </c>
       <c r="E9" s="122" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F9" s="83">
         <v>2704950700</v>
@@ -6862,16 +6893,17 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="DA9" s="173">
+      <c r="DA9" s="175">
         <f>0+(L9/(Z9+L9))*0.09</f>
         <v>0.09</v>
       </c>
-      <c r="DB9" s="174"/>
-      <c r="DC9" s="5"/>
+      <c r="DB9" s="176"/>
+      <c r="DC9" s="176"/>
       <c r="DD9" s="5"/>
-      <c r="DE9" s="1"/>
-    </row>
-    <row r="10" spans="1:109">
+      <c r="DE9" s="5"/>
+      <c r="DF9" s="1"/>
+    </row>
+    <row r="10" spans="1:110">
       <c r="A10" s="4"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25">
@@ -6882,7 +6914,7 @@
         <v>95666000000</v>
       </c>
       <c r="E10" s="122" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F10" s="83">
         <v>2706246000</v>
@@ -7153,16 +7185,17 @@
         <f t="shared" si="13"/>
         <v>-0.0175869340610216</v>
       </c>
-      <c r="DA10" s="173">
+      <c r="DA10" s="175">
         <f t="shared" si="38"/>
         <v>0.09</v>
       </c>
-      <c r="DB10" s="174"/>
-      <c r="DC10" s="5"/>
+      <c r="DB10" s="176"/>
+      <c r="DC10" s="176"/>
       <c r="DD10" s="5"/>
-      <c r="DE10" s="1"/>
-    </row>
-    <row r="11" spans="1:109">
+      <c r="DE10" s="5"/>
+      <c r="DF10" s="1"/>
+    </row>
+    <row r="11" spans="1:110">
       <c r="A11" s="4"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25">
@@ -7173,7 +7206,7 @@
         <v>60068000000</v>
       </c>
       <c r="E11" s="122" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F11" s="126">
         <v>1503580000</v>
@@ -7446,16 +7479,17 @@
         <f t="shared" si="13"/>
         <v>0.0172903477749068</v>
       </c>
-      <c r="DA11" s="173">
+      <c r="DA11" s="175">
         <f t="shared" si="38"/>
         <v>0.0888261086875187</v>
       </c>
-      <c r="DB11" s="174"/>
-      <c r="DC11" s="5"/>
+      <c r="DB11" s="176"/>
+      <c r="DC11" s="176"/>
       <c r="DD11" s="5"/>
-      <c r="DE11" s="1"/>
-    </row>
-    <row r="12" ht="20" customHeight="1" spans="1:109">
+      <c r="DE11" s="5"/>
+      <c r="DF11" s="1"/>
+    </row>
+    <row r="12" ht="20" customHeight="1" spans="1:110">
       <c r="A12" s="4"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25">
@@ -7729,16 +7763,17 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="DA12" s="173">
+      <c r="DA12" s="175">
         <f>0+(L12/(Z12+L12))*0.09</f>
         <v>0.09</v>
       </c>
-      <c r="DB12" s="174"/>
-      <c r="DC12" s="5"/>
+      <c r="DB12" s="176"/>
+      <c r="DC12" s="176"/>
       <c r="DD12" s="5"/>
-      <c r="DE12" s="1"/>
-    </row>
-    <row r="13" ht="23" customHeight="1" spans="1:109">
+      <c r="DE12" s="5"/>
+      <c r="DF12" s="1"/>
+    </row>
+    <row r="13" ht="23" customHeight="1" spans="1:110">
       <c r="A13" s="4"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25">
@@ -7973,19 +8008,20 @@
       <c r="CX13" s="76"/>
       <c r="CY13" s="76"/>
       <c r="CZ13" s="56"/>
-      <c r="DA13" s="173">
+      <c r="DA13" s="175">
         <f t="shared" si="38"/>
         <v>0.09</v>
       </c>
-      <c r="DB13" s="174"/>
-      <c r="DC13" s="5"/>
+      <c r="DB13" s="176"/>
+      <c r="DC13" s="176"/>
       <c r="DD13" s="5"/>
-      <c r="DE13" s="1"/>
-    </row>
-    <row r="14" spans="1:108">
+      <c r="DE13" s="5"/>
+      <c r="DF13" s="1"/>
+    </row>
+    <row r="14" spans="1:109">
       <c r="A14" s="4"/>
       <c r="B14" s="27" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C14" s="27">
         <v>2022</v>
@@ -7995,7 +8031,7 @@
         <v>28957000000</v>
       </c>
       <c r="E14" s="123" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
@@ -8190,10 +8226,11 @@
       <c r="CZ14" s="56"/>
       <c r="DA14" s="131"/>
       <c r="DB14" s="4"/>
-      <c r="DC14" s="5"/>
+      <c r="DC14" s="4"/>
       <c r="DD14" s="5"/>
-    </row>
-    <row r="15" spans="1:108">
+      <c r="DE14" s="5"/>
+    </row>
+    <row r="15" spans="1:109">
       <c r="A15" s="4"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27">
@@ -8204,7 +8241,7 @@
         <v>30248000000</v>
       </c>
       <c r="E15" s="123" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
@@ -8397,10 +8434,11 @@
       <c r="CZ15" s="56"/>
       <c r="DA15" s="131"/>
       <c r="DB15" s="4"/>
-      <c r="DC15" s="5"/>
+      <c r="DC15" s="4"/>
       <c r="DD15" s="5"/>
-    </row>
-    <row r="16" spans="1:108">
+      <c r="DE15" s="5"/>
+    </row>
+    <row r="16" spans="1:109">
       <c r="A16" s="4"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27">
@@ -8411,7 +8449,7 @@
         <v>53096000000</v>
       </c>
       <c r="E16" s="123" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
@@ -8604,10 +8642,11 @@
       <c r="CZ16" s="56"/>
       <c r="DA16" s="131"/>
       <c r="DB16" s="4"/>
-      <c r="DC16" s="5"/>
+      <c r="DC16" s="4"/>
       <c r="DD16" s="5"/>
-    </row>
-    <row r="17" spans="1:108">
+      <c r="DE16" s="5"/>
+    </row>
+    <row r="17" spans="1:109">
       <c r="A17" s="4"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27">
@@ -8618,7 +8657,7 @@
         <v>31348000000</v>
       </c>
       <c r="E17" s="123" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
@@ -8811,10 +8850,11 @@
       <c r="CZ17" s="56"/>
       <c r="DA17" s="131"/>
       <c r="DB17" s="4"/>
-      <c r="DC17" s="5"/>
+      <c r="DC17" s="4"/>
       <c r="DD17" s="5"/>
-    </row>
-    <row r="18" spans="1:108">
+      <c r="DE17" s="5"/>
+    </row>
+    <row r="18" spans="1:109">
       <c r="A18" s="4"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27">
@@ -8825,7 +8865,7 @@
         <v>23469000000</v>
       </c>
       <c r="E18" s="123" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
@@ -9018,10 +9058,11 @@
       <c r="CZ18" s="56"/>
       <c r="DA18" s="131"/>
       <c r="DB18" s="4"/>
-      <c r="DC18" s="5"/>
+      <c r="DC18" s="4"/>
       <c r="DD18" s="5"/>
-    </row>
-    <row r="19" spans="1:108">
+      <c r="DE18" s="5"/>
+    </row>
+    <row r="19" spans="1:109">
       <c r="A19" s="4"/>
       <c r="B19" s="27"/>
       <c r="C19" s="27">
@@ -9032,7 +9073,7 @@
         <v>19725000000</v>
       </c>
       <c r="E19" s="123" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
@@ -9225,10 +9266,11 @@
       <c r="CZ19" s="56"/>
       <c r="DA19" s="131"/>
       <c r="DB19" s="4"/>
-      <c r="DC19" s="5"/>
+      <c r="DC19" s="4"/>
       <c r="DD19" s="5"/>
-    </row>
-    <row r="20" spans="1:108">
+      <c r="DE19" s="5"/>
+    </row>
+    <row r="20" spans="1:109">
       <c r="A20" s="4"/>
       <c r="B20" s="27"/>
       <c r="C20" s="27">
@@ -9239,7 +9281,7 @@
         <v>11217000000</v>
       </c>
       <c r="E20" s="123" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
@@ -9430,10 +9472,11 @@
       <c r="CZ20" s="56"/>
       <c r="DA20" s="131"/>
       <c r="DB20" s="4"/>
-      <c r="DC20" s="5"/>
+      <c r="DC20" s="4"/>
       <c r="DD20" s="5"/>
-    </row>
-    <row r="21" spans="1:108">
+      <c r="DE20" s="5"/>
+    </row>
+    <row r="21" spans="1:109">
       <c r="A21" s="4"/>
       <c r="B21" s="27"/>
       <c r="C21" s="4">
@@ -9444,7 +9487,7 @@
         <v>12467000000</v>
       </c>
       <c r="E21" s="123" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
@@ -9635,10 +9678,11 @@
       <c r="CZ21" s="56"/>
       <c r="DA21" s="131"/>
       <c r="DB21" s="4"/>
-      <c r="DC21" s="5"/>
+      <c r="DC21" s="4"/>
       <c r="DD21" s="5"/>
-    </row>
-    <row r="22" spans="1:108">
+      <c r="DE21" s="5"/>
+    </row>
+    <row r="22" spans="1:109">
       <c r="A22" s="4"/>
       <c r="B22" s="27"/>
       <c r="C22" s="4">
@@ -9649,7 +9693,7 @@
         <v>8269000000</v>
       </c>
       <c r="E22" s="123" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
@@ -9846,10 +9890,11 @@
       <c r="CZ22" s="56"/>
       <c r="DA22" s="131"/>
       <c r="DB22" s="4"/>
-      <c r="DC22" s="5"/>
+      <c r="DC22" s="4"/>
       <c r="DD22" s="5"/>
-    </row>
-    <row r="23" spans="1:108">
+      <c r="DE22" s="5"/>
+    </row>
+    <row r="23" spans="1:109">
       <c r="A23" s="4"/>
       <c r="B23" s="27"/>
       <c r="C23" s="4">
@@ -9860,7 +9905,7 @@
         <v>9058000000</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
@@ -10055,10 +10100,11 @@
       <c r="CZ23" s="56"/>
       <c r="DA23" s="131"/>
       <c r="DB23" s="4"/>
-      <c r="DC23" s="5"/>
+      <c r="DC23" s="4"/>
       <c r="DD23" s="5"/>
-    </row>
-    <row r="24" spans="1:108">
+      <c r="DE23" s="5"/>
+    </row>
+    <row r="24" spans="1:109">
       <c r="A24" s="4"/>
       <c r="B24" s="27"/>
       <c r="C24" s="4">
@@ -10254,13 +10300,14 @@
       <c r="CZ24" s="56"/>
       <c r="DA24" s="131"/>
       <c r="DB24" s="4"/>
-      <c r="DC24" s="5"/>
+      <c r="DC24" s="4"/>
       <c r="DD24" s="5"/>
-    </row>
-    <row r="25" customFormat="1" spans="1:108">
+      <c r="DE24" s="5"/>
+    </row>
+    <row r="25" customFormat="1" spans="1:109">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C25" s="4">
         <v>2022</v>
@@ -10270,7 +10317,7 @@
         <v>20062000000</v>
       </c>
       <c r="E25" s="123" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
@@ -10454,10 +10501,11 @@
       <c r="CZ25" s="56"/>
       <c r="DA25" s="131"/>
       <c r="DB25" s="4"/>
-      <c r="DC25" s="5"/>
+      <c r="DC25" s="4"/>
       <c r="DD25" s="5"/>
-    </row>
-    <row r="26" customFormat="1" spans="1:108">
+      <c r="DE25" s="5"/>
+    </row>
+    <row r="26" customFormat="1" spans="1:109">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4">
@@ -10468,7 +10516,7 @@
         <v>19235000000</v>
       </c>
       <c r="E26" s="123" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
@@ -10650,10 +10698,11 @@
       <c r="CZ26" s="56"/>
       <c r="DA26" s="131"/>
       <c r="DB26" s="4"/>
-      <c r="DC26" s="5"/>
+      <c r="DC26" s="4"/>
       <c r="DD26" s="5"/>
-    </row>
-    <row r="27" customFormat="1" spans="1:108">
+      <c r="DE26" s="5"/>
+    </row>
+    <row r="27" customFormat="1" spans="1:109">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4">
@@ -10664,7 +10713,7 @@
         <v>24883000000</v>
       </c>
       <c r="E27" s="123" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
@@ -10844,10 +10893,11 @@
       <c r="CZ27" s="56"/>
       <c r="DA27" s="131"/>
       <c r="DB27" s="4"/>
-      <c r="DC27" s="5"/>
+      <c r="DC27" s="4"/>
       <c r="DD27" s="5"/>
-    </row>
-    <row r="28" customFormat="1" spans="1:108">
+      <c r="DE27" s="5"/>
+    </row>
+    <row r="28" customFormat="1" spans="1:109">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
@@ -10858,7 +10908,7 @@
         <v>9904000000</v>
       </c>
       <c r="E28" s="123" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
@@ -11040,10 +11090,11 @@
       <c r="CZ28" s="56"/>
       <c r="DA28" s="131"/>
       <c r="DB28" s="4"/>
-      <c r="DC28" s="5"/>
+      <c r="DC28" s="4"/>
       <c r="DD28" s="5"/>
-    </row>
-    <row r="29" customFormat="1" spans="1:108">
+      <c r="DE28" s="5"/>
+    </row>
+    <row r="29" customFormat="1" spans="1:109">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4">
@@ -11054,7 +11105,7 @@
         <v>5017000000</v>
       </c>
       <c r="E29" s="123" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
@@ -11236,10 +11287,11 @@
       <c r="CZ29" s="56"/>
       <c r="DA29" s="131"/>
       <c r="DB29" s="4"/>
-      <c r="DC29" s="5"/>
+      <c r="DC29" s="4"/>
       <c r="DD29" s="5"/>
-    </row>
-    <row r="30" customFormat="1" spans="1:108">
+      <c r="DE29" s="5"/>
+    </row>
+    <row r="30" customFormat="1" spans="1:109">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4">
@@ -11250,7 +11302,7 @@
         <v>5864000000</v>
       </c>
       <c r="E30" s="123" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
@@ -11428,10 +11480,11 @@
       <c r="CZ30" s="56"/>
       <c r="DA30" s="131"/>
       <c r="DB30" s="4"/>
-      <c r="DC30" s="5"/>
+      <c r="DC30" s="4"/>
       <c r="DD30" s="5"/>
-    </row>
-    <row r="31" customFormat="1" spans="1:108">
+      <c r="DE30" s="5"/>
+    </row>
+    <row r="31" customFormat="1" spans="1:109">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4">
@@ -11442,7 +11495,7 @@
         <v>7195000000</v>
       </c>
       <c r="E31" s="123" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
@@ -11620,10 +11673,11 @@
       <c r="CZ31" s="56"/>
       <c r="DA31" s="131"/>
       <c r="DB31" s="4"/>
-      <c r="DC31" s="5"/>
+      <c r="DC31" s="4"/>
       <c r="DD31" s="5"/>
-    </row>
-    <row r="32" customFormat="1" spans="1:108">
+      <c r="DE31" s="5"/>
+    </row>
+    <row r="32" customFormat="1" spans="1:109">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4">
@@ -11806,10 +11860,11 @@
       <c r="CZ32" s="56"/>
       <c r="DA32" s="131"/>
       <c r="DB32" s="4"/>
-      <c r="DC32" s="5"/>
+      <c r="DC32" s="4"/>
       <c r="DD32" s="5"/>
-    </row>
-    <row r="33" customFormat="1" spans="1:108">
+      <c r="DE32" s="5"/>
+    </row>
+    <row r="33" customFormat="1" spans="1:109">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4">
@@ -11972,10 +12027,11 @@
       <c r="CZ33" s="56"/>
       <c r="DA33" s="131"/>
       <c r="DB33" s="4"/>
-      <c r="DC33" s="5"/>
+      <c r="DC33" s="4"/>
       <c r="DD33" s="5"/>
-    </row>
-    <row r="34" customFormat="1" spans="1:108">
+      <c r="DE33" s="5"/>
+    </row>
+    <row r="34" customFormat="1" spans="1:109">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4">
@@ -12138,10 +12194,11 @@
       <c r="CZ34" s="56"/>
       <c r="DA34" s="131"/>
       <c r="DB34" s="4"/>
-      <c r="DC34" s="5"/>
+      <c r="DC34" s="4"/>
       <c r="DD34" s="5"/>
-    </row>
-    <row r="35" customFormat="1" spans="1:108">
+      <c r="DE34" s="5"/>
+    </row>
+    <row r="35" customFormat="1" spans="1:109">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4">
@@ -12304,13 +12361,14 @@
       <c r="CZ35" s="56"/>
       <c r="DA35" s="131"/>
       <c r="DB35" s="4"/>
-      <c r="DC35" s="5"/>
+      <c r="DC35" s="4"/>
       <c r="DD35" s="5"/>
-    </row>
-    <row r="36" customFormat="1" spans="1:108">
+      <c r="DE35" s="5"/>
+    </row>
+    <row r="36" customFormat="1" spans="1:109">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C36" s="4">
         <v>2022</v>
@@ -12320,7 +12378,7 @@
         <v>20969000000</v>
       </c>
       <c r="E36" s="123" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F36" s="27"/>
       <c r="G36" s="27"/>
@@ -12509,10 +12567,11 @@
       <c r="CZ36" s="56"/>
       <c r="DA36" s="131"/>
       <c r="DB36" s="4"/>
-      <c r="DC36" s="5"/>
+      <c r="DC36" s="4"/>
       <c r="DD36" s="5"/>
-    </row>
-    <row r="37" customFormat="1" spans="1:108">
+      <c r="DE36" s="5"/>
+    </row>
+    <row r="37" customFormat="1" spans="1:109">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4">
@@ -12523,7 +12582,7 @@
         <v>20220000000</v>
       </c>
       <c r="E37" s="123" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F37" s="27"/>
       <c r="G37" s="27"/>
@@ -12712,10 +12771,11 @@
       <c r="CZ37" s="56"/>
       <c r="DA37" s="131"/>
       <c r="DB37" s="4"/>
-      <c r="DC37" s="5"/>
+      <c r="DC37" s="4"/>
       <c r="DD37" s="5"/>
-    </row>
-    <row r="38" customFormat="1" spans="1:108">
+      <c r="DE37" s="5"/>
+    </row>
+    <row r="38" customFormat="1" spans="1:109">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4">
@@ -12726,7 +12786,7 @@
         <v>51848000000</v>
       </c>
       <c r="E38" s="123" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F38" s="27"/>
       <c r="G38" s="27"/>
@@ -12911,10 +12971,11 @@
       <c r="CZ38" s="56"/>
       <c r="DA38" s="131"/>
       <c r="DB38" s="4"/>
-      <c r="DC38" s="5"/>
+      <c r="DC38" s="4"/>
       <c r="DD38" s="5"/>
-    </row>
-    <row r="39" customFormat="1" spans="1:108">
+      <c r="DE38" s="5"/>
+    </row>
+    <row r="39" customFormat="1" spans="1:109">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4">
@@ -12925,7 +12986,7 @@
         <v>18551000000</v>
       </c>
       <c r="E39" s="123" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="27"/>
@@ -13110,10 +13171,11 @@
       <c r="CZ39" s="56"/>
       <c r="DA39" s="131"/>
       <c r="DB39" s="4"/>
-      <c r="DC39" s="5"/>
+      <c r="DC39" s="4"/>
       <c r="DD39" s="5"/>
-    </row>
-    <row r="40" customFormat="1" spans="1:108">
+      <c r="DE39" s="5"/>
+    </row>
+    <row r="40" customFormat="1" spans="1:109">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4">
@@ -13121,7 +13183,7 @@
       </c>
       <c r="D40" s="123"/>
       <c r="E40" s="123" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F40" s="27"/>
       <c r="G40" s="27"/>
@@ -13304,10 +13366,11 @@
       <c r="CZ40" s="56"/>
       <c r="DA40" s="131"/>
       <c r="DB40" s="4"/>
-      <c r="DC40" s="5"/>
+      <c r="DC40" s="4"/>
       <c r="DD40" s="5"/>
-    </row>
-    <row r="41" customFormat="1" spans="1:108">
+      <c r="DE40" s="5"/>
+    </row>
+    <row r="41" customFormat="1" spans="1:109">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4">
@@ -13315,7 +13378,7 @@
       </c>
       <c r="D41" s="123"/>
       <c r="E41" s="123" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
@@ -13498,10 +13561,11 @@
       <c r="CZ41" s="56"/>
       <c r="DA41" s="131"/>
       <c r="DB41" s="4"/>
-      <c r="DC41" s="5"/>
+      <c r="DC41" s="4"/>
       <c r="DD41" s="5"/>
-    </row>
-    <row r="42" customFormat="1" spans="1:108">
+      <c r="DE41" s="5"/>
+    </row>
+    <row r="42" customFormat="1" spans="1:109">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4">
@@ -13509,7 +13573,7 @@
       </c>
       <c r="D42" s="123"/>
       <c r="E42" s="123" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F42" s="27"/>
       <c r="G42" s="27"/>
@@ -13689,10 +13753,11 @@
       <c r="CZ42" s="56"/>
       <c r="DA42" s="131"/>
       <c r="DB42" s="4"/>
-      <c r="DC42" s="5"/>
+      <c r="DC42" s="4"/>
       <c r="DD42" s="5"/>
-    </row>
-    <row r="43" customFormat="1" spans="1:108">
+      <c r="DE42" s="5"/>
+    </row>
+    <row r="43" customFormat="1" spans="1:109">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4">
@@ -13855,10 +13920,11 @@
       <c r="CZ43" s="56"/>
       <c r="DA43" s="131"/>
       <c r="DB43" s="4"/>
-      <c r="DC43" s="5"/>
+      <c r="DC43" s="4"/>
       <c r="DD43" s="5"/>
-    </row>
-    <row r="44" customFormat="1" spans="1:108">
+      <c r="DE43" s="5"/>
+    </row>
+    <row r="44" customFormat="1" spans="1:109">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4">
@@ -14021,10 +14087,11 @@
       <c r="CZ44" s="56"/>
       <c r="DA44" s="131"/>
       <c r="DB44" s="4"/>
-      <c r="DC44" s="5"/>
+      <c r="DC44" s="4"/>
       <c r="DD44" s="5"/>
-    </row>
-    <row r="45" customFormat="1" spans="1:108">
+      <c r="DE44" s="5"/>
+    </row>
+    <row r="45" customFormat="1" spans="1:109">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4">
@@ -14187,10 +14254,11 @@
       <c r="CZ45" s="56"/>
       <c r="DA45" s="131"/>
       <c r="DB45" s="4"/>
-      <c r="DC45" s="5"/>
+      <c r="DC45" s="4"/>
       <c r="DD45" s="5"/>
-    </row>
-    <row r="46" customFormat="1" spans="1:108">
+      <c r="DE45" s="5"/>
+    </row>
+    <row r="46" customFormat="1" spans="1:109">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4">
@@ -14353,13 +14421,14 @@
       <c r="CZ46" s="56"/>
       <c r="DA46" s="131"/>
       <c r="DB46" s="4"/>
-      <c r="DC46" s="5"/>
+      <c r="DC46" s="4"/>
       <c r="DD46" s="5"/>
-    </row>
-    <row r="47" spans="1:108">
+      <c r="DE46" s="5"/>
+    </row>
+    <row r="47" spans="1:109">
       <c r="A47" s="4"/>
       <c r="B47" s="27" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C47" s="27">
         <v>2022</v>
@@ -14488,10 +14557,11 @@
       <c r="CZ47" s="56"/>
       <c r="DA47" s="131"/>
       <c r="DB47" s="4"/>
-      <c r="DC47" s="5"/>
+      <c r="DC47" s="4"/>
       <c r="DD47" s="5"/>
-    </row>
-    <row r="48" spans="1:108">
+      <c r="DE47" s="5"/>
+    </row>
+    <row r="48" spans="1:109">
       <c r="A48" s="4"/>
       <c r="B48" s="27"/>
       <c r="C48" s="27">
@@ -14618,10 +14688,11 @@
       <c r="CZ48" s="56"/>
       <c r="DA48" s="131"/>
       <c r="DB48" s="4"/>
-      <c r="DC48" s="5"/>
+      <c r="DC48" s="4"/>
       <c r="DD48" s="5"/>
-    </row>
-    <row r="49" spans="1:108">
+      <c r="DE48" s="5"/>
+    </row>
+    <row r="49" spans="1:109">
       <c r="A49" s="4"/>
       <c r="B49" s="27"/>
       <c r="C49" s="27">
@@ -14748,10 +14819,11 @@
       <c r="CZ49" s="56"/>
       <c r="DA49" s="131"/>
       <c r="DB49" s="4"/>
-      <c r="DC49" s="5"/>
+      <c r="DC49" s="4"/>
       <c r="DD49" s="5"/>
-    </row>
-    <row r="50" spans="1:108">
+      <c r="DE49" s="5"/>
+    </row>
+    <row r="50" spans="1:109">
       <c r="A50" s="4"/>
       <c r="B50" s="27"/>
       <c r="C50" s="27">
@@ -14878,10 +14950,11 @@
       <c r="CZ50" s="56"/>
       <c r="DA50" s="131"/>
       <c r="DB50" s="4"/>
-      <c r="DC50" s="5"/>
+      <c r="DC50" s="4"/>
       <c r="DD50" s="5"/>
-    </row>
-    <row r="51" spans="1:108">
+      <c r="DE50" s="5"/>
+    </row>
+    <row r="51" spans="1:109">
       <c r="A51" s="4"/>
       <c r="B51" s="27"/>
       <c r="C51" s="27">
@@ -15008,10 +15081,11 @@
       <c r="CZ51" s="56"/>
       <c r="DA51" s="131"/>
       <c r="DB51" s="4"/>
-      <c r="DC51" s="5"/>
+      <c r="DC51" s="4"/>
       <c r="DD51" s="5"/>
-    </row>
-    <row r="52" spans="1:108">
+      <c r="DE51" s="5"/>
+    </row>
+    <row r="52" spans="1:109">
       <c r="A52" s="4"/>
       <c r="B52" s="27"/>
       <c r="C52" s="27">
@@ -15138,10 +15212,11 @@
       <c r="CZ52" s="56"/>
       <c r="DA52" s="131"/>
       <c r="DB52" s="4"/>
-      <c r="DC52" s="5"/>
+      <c r="DC52" s="4"/>
       <c r="DD52" s="5"/>
-    </row>
-    <row r="53" spans="1:108">
+      <c r="DE52" s="5"/>
+    </row>
+    <row r="53" spans="1:109">
       <c r="A53" s="4"/>
       <c r="B53" s="27"/>
       <c r="C53" s="27">
@@ -15268,10 +15343,11 @@
       <c r="CZ53" s="56"/>
       <c r="DA53" s="131"/>
       <c r="DB53" s="4"/>
-      <c r="DC53" s="5"/>
+      <c r="DC53" s="4"/>
       <c r="DD53" s="5"/>
-    </row>
-    <row r="54" spans="1:108">
+      <c r="DE53" s="5"/>
+    </row>
+    <row r="54" spans="1:109">
       <c r="A54" s="4"/>
       <c r="B54" s="27"/>
       <c r="C54" s="27">
@@ -15398,10 +15474,11 @@
       <c r="CZ54" s="56"/>
       <c r="DA54" s="131"/>
       <c r="DB54" s="4"/>
-      <c r="DC54" s="5"/>
+      <c r="DC54" s="4"/>
       <c r="DD54" s="5"/>
-    </row>
-    <row r="55" spans="1:108">
+      <c r="DE54" s="5"/>
+    </row>
+    <row r="55" spans="1:109">
       <c r="A55" s="4"/>
       <c r="B55" s="27"/>
       <c r="C55" s="27">
@@ -15528,10 +15605,11 @@
       <c r="CZ55" s="56"/>
       <c r="DA55" s="131"/>
       <c r="DB55" s="4"/>
-      <c r="DC55" s="5"/>
+      <c r="DC55" s="4"/>
       <c r="DD55" s="5"/>
-    </row>
-    <row r="56" spans="1:108">
+      <c r="DE55" s="5"/>
+    </row>
+    <row r="56" spans="1:109">
       <c r="A56" s="4"/>
       <c r="B56" s="27"/>
       <c r="C56" s="27">
@@ -15658,10 +15736,11 @@
       <c r="CZ56" s="56"/>
       <c r="DA56" s="131"/>
       <c r="DB56" s="4"/>
-      <c r="DC56" s="5"/>
+      <c r="DC56" s="4"/>
       <c r="DD56" s="5"/>
-    </row>
-    <row r="57" spans="1:108">
+      <c r="DE56" s="5"/>
+    </row>
+    <row r="57" spans="1:109">
       <c r="A57" s="4"/>
       <c r="B57" s="27"/>
       <c r="C57" s="27">
@@ -15788,13 +15867,14 @@
       <c r="CZ57" s="56"/>
       <c r="DA57" s="131"/>
       <c r="DB57" s="4"/>
-      <c r="DC57" s="5"/>
+      <c r="DC57" s="4"/>
       <c r="DD57" s="5"/>
-    </row>
-    <row r="58" spans="1:108">
+      <c r="DE57" s="5"/>
+    </row>
+    <row r="58" spans="1:109">
       <c r="A58" s="4"/>
       <c r="B58" s="27" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C58" s="27">
         <v>2022</v>
@@ -15804,7 +15884,7 @@
         <v>5322000000</v>
       </c>
       <c r="E58" s="123" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F58" s="27"/>
       <c r="G58" s="27"/>
@@ -15927,8 +16007,9 @@
       <c r="DB58" s="5"/>
       <c r="DC58" s="5"/>
       <c r="DD58" s="5"/>
-    </row>
-    <row r="59" spans="1:108">
+      <c r="DE58" s="5"/>
+    </row>
+    <row r="59" spans="1:109">
       <c r="A59" s="4"/>
       <c r="B59" s="27"/>
       <c r="C59" s="27">
@@ -15939,7 +16020,7 @@
         <v>7903000000</v>
       </c>
       <c r="E59" s="123" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F59" s="27"/>
       <c r="G59" s="27"/>
@@ -16062,8 +16143,9 @@
       <c r="DB59" s="5"/>
       <c r="DC59" s="5"/>
       <c r="DD59" s="5"/>
-    </row>
-    <row r="60" spans="1:108">
+      <c r="DE59" s="5"/>
+    </row>
+    <row r="60" spans="1:109">
       <c r="A60" s="4"/>
       <c r="B60" s="27"/>
       <c r="C60" s="27">
@@ -16074,7 +16156,7 @@
         <v>7811000000</v>
       </c>
       <c r="E60" s="123" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F60" s="27"/>
       <c r="G60" s="27"/>
@@ -16197,8 +16279,9 @@
       <c r="DB60" s="5"/>
       <c r="DC60" s="5"/>
       <c r="DD60" s="5"/>
-    </row>
-    <row r="61" spans="1:108">
+      <c r="DE60" s="5"/>
+    </row>
+    <row r="61" spans="1:109">
       <c r="A61" s="4"/>
       <c r="B61" s="27"/>
       <c r="C61" s="27">
@@ -16209,7 +16292,7 @@
         <v>4124000000</v>
       </c>
       <c r="E61" s="123" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F61" s="27"/>
       <c r="G61" s="27"/>
@@ -16332,8 +16415,9 @@
       <c r="DB61" s="5"/>
       <c r="DC61" s="5"/>
       <c r="DD61" s="5"/>
-    </row>
-    <row r="62" spans="1:108">
+      <c r="DE61" s="5"/>
+    </row>
+    <row r="62" spans="1:109">
       <c r="A62" s="4"/>
       <c r="B62" s="27"/>
       <c r="C62" s="27">
@@ -16344,7 +16428,7 @@
         <v>4147000000</v>
       </c>
       <c r="E62" s="123" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F62" s="27"/>
       <c r="G62" s="27"/>
@@ -16467,8 +16551,9 @@
       <c r="DB62" s="5"/>
       <c r="DC62" s="5"/>
       <c r="DD62" s="5"/>
-    </row>
-    <row r="63" spans="1:108">
+      <c r="DE62" s="5"/>
+    </row>
+    <row r="63" spans="1:109">
       <c r="A63" s="4"/>
       <c r="B63" s="27"/>
       <c r="C63" s="27">
@@ -16479,7 +16564,7 @@
         <v>8133000000</v>
       </c>
       <c r="E63" s="123" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F63" s="27"/>
       <c r="G63" s="27"/>
@@ -16602,8 +16687,9 @@
       <c r="DB63" s="5"/>
       <c r="DC63" s="5"/>
       <c r="DD63" s="5"/>
-    </row>
-    <row r="64" spans="1:108">
+      <c r="DE63" s="5"/>
+    </row>
+    <row r="64" spans="1:109">
       <c r="A64" s="4"/>
       <c r="B64" s="27"/>
       <c r="C64" s="27">
@@ -16614,7 +16700,7 @@
         <v>8110000000</v>
       </c>
       <c r="E64" s="123" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F64" s="27"/>
       <c r="G64" s="27"/>
@@ -16737,8 +16823,9 @@
       <c r="DB64" s="5"/>
       <c r="DC64" s="5"/>
       <c r="DD64" s="5"/>
-    </row>
-    <row r="65" spans="1:108">
+      <c r="DE64" s="5"/>
+    </row>
+    <row r="65" spans="1:109">
       <c r="A65" s="4"/>
       <c r="B65" s="27"/>
       <c r="C65" s="27">
@@ -16749,7 +16836,7 @@
         <v>9354000000</v>
       </c>
       <c r="E65" s="123" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F65" s="27"/>
       <c r="G65" s="27"/>
@@ -16872,8 +16959,9 @@
       <c r="DB65" s="5"/>
       <c r="DC65" s="5"/>
       <c r="DD65" s="5"/>
-    </row>
-    <row r="66" spans="1:108">
+      <c r="DE65" s="5"/>
+    </row>
+    <row r="66" spans="1:109">
       <c r="A66" s="4"/>
       <c r="B66" s="27"/>
       <c r="C66" s="27">
@@ -16884,7 +16972,7 @@
         <v>5451000000</v>
       </c>
       <c r="E66" s="123" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F66" s="27"/>
       <c r="G66" s="27"/>
@@ -17007,8 +17095,9 @@
       <c r="DB66" s="5"/>
       <c r="DC66" s="5"/>
       <c r="DD66" s="5"/>
-    </row>
-    <row r="67" spans="1:108">
+      <c r="DE66" s="5"/>
+    </row>
+    <row r="67" spans="1:109">
       <c r="A67" s="4"/>
       <c r="B67" s="27"/>
       <c r="C67" s="27">
@@ -17019,7 +17108,7 @@
         <v>4382000000</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F67" s="27"/>
       <c r="G67" s="27"/>
@@ -17142,8 +17231,9 @@
       <c r="DB67" s="5"/>
       <c r="DC67" s="5"/>
       <c r="DD67" s="5"/>
-    </row>
-    <row r="68" spans="1:108">
+      <c r="DE67" s="5"/>
+    </row>
+    <row r="68" spans="1:109">
       <c r="A68" s="4"/>
       <c r="B68" s="27"/>
       <c r="C68" s="27">
@@ -17272,11 +17362,12 @@
       <c r="DB68" s="5"/>
       <c r="DC68" s="5"/>
       <c r="DD68" s="5"/>
-    </row>
-    <row r="69" spans="1:108">
+      <c r="DE68" s="5"/>
+    </row>
+    <row r="69" spans="1:109">
       <c r="A69" s="4"/>
       <c r="B69" s="27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C69" s="27">
         <v>2022</v>
@@ -17404,8 +17495,9 @@
       <c r="DB69" s="5"/>
       <c r="DC69" s="5"/>
       <c r="DD69" s="5"/>
-    </row>
-    <row r="70" spans="1:108">
+      <c r="DE69" s="5"/>
+    </row>
+    <row r="70" spans="1:109">
       <c r="A70" s="4"/>
       <c r="B70" s="27"/>
       <c r="C70" s="27">
@@ -17534,8 +17626,9 @@
       <c r="DB70" s="5"/>
       <c r="DC70" s="5"/>
       <c r="DD70" s="5"/>
-    </row>
-    <row r="71" spans="1:108">
+      <c r="DE70" s="5"/>
+    </row>
+    <row r="71" spans="1:109">
       <c r="A71" s="4"/>
       <c r="B71" s="27"/>
       <c r="C71" s="27">
@@ -17664,8 +17757,9 @@
       <c r="DB71" s="5"/>
       <c r="DC71" s="5"/>
       <c r="DD71" s="5"/>
-    </row>
-    <row r="72" spans="1:108">
+      <c r="DE71" s="5"/>
+    </row>
+    <row r="72" spans="1:109">
       <c r="A72" s="4"/>
       <c r="B72" s="27"/>
       <c r="C72" s="27">
@@ -17794,8 +17888,9 @@
       <c r="DB72" s="5"/>
       <c r="DC72" s="5"/>
       <c r="DD72" s="5"/>
-    </row>
-    <row r="73" spans="1:108">
+      <c r="DE72" s="5"/>
+    </row>
+    <row r="73" spans="1:109">
       <c r="A73" s="4"/>
       <c r="B73" s="27"/>
       <c r="C73" s="27">
@@ -17924,8 +18019,9 @@
       <c r="DB73" s="5"/>
       <c r="DC73" s="5"/>
       <c r="DD73" s="5"/>
-    </row>
-    <row r="74" spans="1:108">
+      <c r="DE73" s="5"/>
+    </row>
+    <row r="74" spans="1:109">
       <c r="A74" s="4"/>
       <c r="B74" s="27"/>
       <c r="C74" s="27">
@@ -18054,8 +18150,9 @@
       <c r="DB74" s="5"/>
       <c r="DC74" s="5"/>
       <c r="DD74" s="5"/>
-    </row>
-    <row r="75" spans="1:108">
+      <c r="DE74" s="5"/>
+    </row>
+    <row r="75" spans="1:109">
       <c r="A75" s="4"/>
       <c r="B75" s="27"/>
       <c r="C75" s="27">
@@ -18184,8 +18281,9 @@
       <c r="DB75" s="5"/>
       <c r="DC75" s="5"/>
       <c r="DD75" s="5"/>
-    </row>
-    <row r="76" spans="1:108">
+      <c r="DE75" s="5"/>
+    </row>
+    <row r="76" spans="1:109">
       <c r="A76" s="4"/>
       <c r="B76" s="27"/>
       <c r="C76" s="27">
@@ -18314,8 +18412,9 @@
       <c r="DB76" s="5"/>
       <c r="DC76" s="5"/>
       <c r="DD76" s="5"/>
-    </row>
-    <row r="77" spans="1:108">
+      <c r="DE76" s="5"/>
+    </row>
+    <row r="77" spans="1:109">
       <c r="A77" s="4"/>
       <c r="B77" s="27"/>
       <c r="C77" s="27">
@@ -18444,8 +18543,9 @@
       <c r="DB77" s="5"/>
       <c r="DC77" s="5"/>
       <c r="DD77" s="5"/>
-    </row>
-    <row r="78" spans="1:108">
+      <c r="DE77" s="5"/>
+    </row>
+    <row r="78" spans="1:109">
       <c r="A78" s="4"/>
       <c r="B78" s="27"/>
       <c r="C78" s="27">
@@ -18574,8 +18674,9 @@
       <c r="DB78" s="5"/>
       <c r="DC78" s="5"/>
       <c r="DD78" s="5"/>
-    </row>
-    <row r="79" spans="1:108">
+      <c r="DE78" s="5"/>
+    </row>
+    <row r="79" spans="1:109">
       <c r="A79" s="4"/>
       <c r="B79" s="27"/>
       <c r="C79" s="27">
@@ -18704,11 +18805,12 @@
       <c r="DB79" s="5"/>
       <c r="DC79" s="5"/>
       <c r="DD79" s="5"/>
-    </row>
-    <row r="80" spans="1:108">
+      <c r="DE79" s="5"/>
+    </row>
+    <row r="80" spans="1:109">
       <c r="A80" s="4"/>
       <c r="B80" s="27" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C80" s="27">
         <v>2022</v>
@@ -18836,8 +18938,9 @@
       <c r="DB80" s="5"/>
       <c r="DC80" s="5"/>
       <c r="DD80" s="5"/>
-    </row>
-    <row r="81" spans="1:108">
+      <c r="DE80" s="5"/>
+    </row>
+    <row r="81" spans="1:109">
       <c r="A81" s="4"/>
       <c r="B81" s="27"/>
       <c r="C81" s="27">
@@ -18966,8 +19069,9 @@
       <c r="DB81" s="5"/>
       <c r="DC81" s="5"/>
       <c r="DD81" s="5"/>
-    </row>
-    <row r="82" spans="1:108">
+      <c r="DE81" s="5"/>
+    </row>
+    <row r="82" spans="1:109">
       <c r="A82" s="4"/>
       <c r="B82" s="27"/>
       <c r="C82" s="27">
@@ -19096,8 +19200,9 @@
       <c r="DB82" s="5"/>
       <c r="DC82" s="5"/>
       <c r="DD82" s="5"/>
-    </row>
-    <row r="83" spans="1:108">
+      <c r="DE82" s="5"/>
+    </row>
+    <row r="83" spans="1:109">
       <c r="A83" s="4"/>
       <c r="B83" s="27"/>
       <c r="C83" s="27">
@@ -19213,7 +19318,7 @@
         <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CR83" s="175"/>
+      <c r="CR83" s="177"/>
       <c r="CS83" s="127"/>
       <c r="CT83" s="123"/>
       <c r="CU83" s="123"/>
@@ -19221,13 +19326,14 @@
       <c r="CW83" s="123"/>
       <c r="CX83" s="123"/>
       <c r="CY83" s="123"/>
-      <c r="CZ83" s="176"/>
+      <c r="CZ83" s="178"/>
       <c r="DA83" s="131"/>
       <c r="DB83" s="5"/>
       <c r="DC83" s="5"/>
       <c r="DD83" s="5"/>
-    </row>
-    <row r="84" spans="1:108">
+      <c r="DE83" s="5"/>
+    </row>
+    <row r="84" spans="1:109">
       <c r="A84" s="4"/>
       <c r="B84" s="27"/>
       <c r="C84" s="27">
@@ -19343,7 +19449,7 @@
         <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CR84" s="175"/>
+      <c r="CR84" s="177"/>
       <c r="CS84" s="127"/>
       <c r="CT84" s="123"/>
       <c r="CU84" s="123"/>
@@ -19351,13 +19457,14 @@
       <c r="CW84" s="123"/>
       <c r="CX84" s="123"/>
       <c r="CY84" s="123"/>
-      <c r="CZ84" s="176"/>
+      <c r="CZ84" s="178"/>
       <c r="DA84" s="131"/>
       <c r="DB84" s="5"/>
       <c r="DC84" s="5"/>
       <c r="DD84" s="5"/>
-    </row>
-    <row r="85" spans="1:108">
+      <c r="DE84" s="5"/>
+    </row>
+    <row r="85" spans="1:109">
       <c r="A85" s="4"/>
       <c r="B85" s="27"/>
       <c r="C85" s="27">
@@ -19473,7 +19580,7 @@
         <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CR85" s="175"/>
+      <c r="CR85" s="177"/>
       <c r="CS85" s="127"/>
       <c r="CT85" s="123"/>
       <c r="CU85" s="123"/>
@@ -19481,13 +19588,14 @@
       <c r="CW85" s="123"/>
       <c r="CX85" s="123"/>
       <c r="CY85" s="123"/>
-      <c r="CZ85" s="176"/>
+      <c r="CZ85" s="178"/>
       <c r="DA85" s="131"/>
       <c r="DB85" s="5"/>
       <c r="DC85" s="5"/>
       <c r="DD85" s="5"/>
-    </row>
-    <row r="86" spans="1:108">
+      <c r="DE85" s="5"/>
+    </row>
+    <row r="86" spans="1:109">
       <c r="A86" s="4"/>
       <c r="B86" s="27"/>
       <c r="C86" s="27">
@@ -19603,7 +19711,7 @@
         <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CR86" s="175"/>
+      <c r="CR86" s="177"/>
       <c r="CS86" s="127"/>
       <c r="CT86" s="123"/>
       <c r="CU86" s="123"/>
@@ -19611,13 +19719,14 @@
       <c r="CW86" s="123"/>
       <c r="CX86" s="123"/>
       <c r="CY86" s="123"/>
-      <c r="CZ86" s="176"/>
+      <c r="CZ86" s="178"/>
       <c r="DA86" s="131"/>
       <c r="DB86" s="5"/>
       <c r="DC86" s="5"/>
       <c r="DD86" s="5"/>
-    </row>
-    <row r="87" spans="1:108">
+      <c r="DE86" s="5"/>
+    </row>
+    <row r="87" spans="1:109">
       <c r="A87" s="4"/>
       <c r="B87" s="27"/>
       <c r="C87" s="27">
@@ -19733,7 +19842,7 @@
         <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CR87" s="175"/>
+      <c r="CR87" s="177"/>
       <c r="CS87" s="127"/>
       <c r="CT87" s="123"/>
       <c r="CU87" s="123"/>
@@ -19741,13 +19850,14 @@
       <c r="CW87" s="123"/>
       <c r="CX87" s="123"/>
       <c r="CY87" s="123"/>
-      <c r="CZ87" s="176"/>
+      <c r="CZ87" s="178"/>
       <c r="DA87" s="131"/>
       <c r="DB87" s="5"/>
       <c r="DC87" s="5"/>
       <c r="DD87" s="5"/>
-    </row>
-    <row r="88" spans="1:108">
+      <c r="DE87" s="5"/>
+    </row>
+    <row r="88" spans="1:109">
       <c r="A88" s="4"/>
       <c r="B88" s="27"/>
       <c r="C88" s="27">
@@ -19863,7 +19973,7 @@
         <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CR88" s="175"/>
+      <c r="CR88" s="177"/>
       <c r="CS88" s="127"/>
       <c r="CT88" s="123"/>
       <c r="CU88" s="123"/>
@@ -19871,13 +19981,14 @@
       <c r="CW88" s="123"/>
       <c r="CX88" s="123"/>
       <c r="CY88" s="123"/>
-      <c r="CZ88" s="176"/>
+      <c r="CZ88" s="178"/>
       <c r="DA88" s="131"/>
       <c r="DB88" s="5"/>
       <c r="DC88" s="5"/>
       <c r="DD88" s="5"/>
-    </row>
-    <row r="89" spans="1:108">
+      <c r="DE88" s="5"/>
+    </row>
+    <row r="89" spans="1:109">
       <c r="A89" s="4"/>
       <c r="B89" s="27"/>
       <c r="C89" s="27">
@@ -19993,7 +20104,7 @@
         <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CR89" s="175"/>
+      <c r="CR89" s="177"/>
       <c r="CS89" s="127"/>
       <c r="CT89" s="123"/>
       <c r="CU89" s="123"/>
@@ -20001,13 +20112,14 @@
       <c r="CW89" s="123"/>
       <c r="CX89" s="123"/>
       <c r="CY89" s="123"/>
-      <c r="CZ89" s="176"/>
+      <c r="CZ89" s="178"/>
       <c r="DA89" s="131"/>
       <c r="DB89" s="5"/>
       <c r="DC89" s="5"/>
       <c r="DD89" s="5"/>
-    </row>
-    <row r="90" spans="1:108">
+      <c r="DE89" s="5"/>
+    </row>
+    <row r="90" spans="1:109">
       <c r="A90" s="4"/>
       <c r="B90" s="27"/>
       <c r="C90" s="27">
@@ -20123,7 +20235,7 @@
         <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CR90" s="175"/>
+      <c r="CR90" s="177"/>
       <c r="CS90" s="127"/>
       <c r="CT90" s="123"/>
       <c r="CU90" s="123"/>
@@ -20131,16 +20243,17 @@
       <c r="CW90" s="123"/>
       <c r="CX90" s="123"/>
       <c r="CY90" s="123"/>
-      <c r="CZ90" s="176"/>
+      <c r="CZ90" s="178"/>
       <c r="DA90" s="131"/>
       <c r="DB90" s="5"/>
       <c r="DC90" s="5"/>
       <c r="DD90" s="5"/>
-    </row>
-    <row r="91" spans="1:108">
+      <c r="DE90" s="5"/>
+    </row>
+    <row r="91" spans="1:109">
       <c r="A91" s="5"/>
       <c r="B91" s="27" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C91" s="27">
         <v>2022</v>
@@ -20255,7 +20368,7 @@
         <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CR91" s="175"/>
+      <c r="CR91" s="177"/>
       <c r="CS91" s="127"/>
       <c r="CT91" s="123"/>
       <c r="CU91" s="123"/>
@@ -20263,13 +20376,14 @@
       <c r="CW91" s="123"/>
       <c r="CX91" s="123"/>
       <c r="CY91" s="123"/>
-      <c r="CZ91" s="176"/>
+      <c r="CZ91" s="178"/>
       <c r="DA91" s="131"/>
       <c r="DB91" s="5"/>
       <c r="DC91" s="5"/>
       <c r="DD91" s="5"/>
-    </row>
-    <row r="92" spans="1:108">
+      <c r="DE91" s="5"/>
+    </row>
+    <row r="92" spans="1:109">
       <c r="A92" s="5"/>
       <c r="B92" s="27"/>
       <c r="C92" s="27">
@@ -20385,7 +20499,7 @@
         <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CR92" s="175"/>
+      <c r="CR92" s="177"/>
       <c r="CS92" s="127"/>
       <c r="CT92" s="123"/>
       <c r="CU92" s="123"/>
@@ -20393,13 +20507,14 @@
       <c r="CW92" s="123"/>
       <c r="CX92" s="123"/>
       <c r="CY92" s="123"/>
-      <c r="CZ92" s="176"/>
+      <c r="CZ92" s="178"/>
       <c r="DA92" s="131"/>
       <c r="DB92" s="5"/>
       <c r="DC92" s="5"/>
       <c r="DD92" s="5"/>
-    </row>
-    <row r="93" spans="1:108">
+      <c r="DE92" s="5"/>
+    </row>
+    <row r="93" spans="1:109">
       <c r="A93" s="5"/>
       <c r="B93" s="27"/>
       <c r="C93" s="27">
@@ -20515,7 +20630,7 @@
         <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CR93" s="175"/>
+      <c r="CR93" s="177"/>
       <c r="CS93" s="127"/>
       <c r="CT93" s="123"/>
       <c r="CU93" s="123"/>
@@ -20523,13 +20638,14 @@
       <c r="CW93" s="123"/>
       <c r="CX93" s="123"/>
       <c r="CY93" s="123"/>
-      <c r="CZ93" s="176"/>
+      <c r="CZ93" s="178"/>
       <c r="DA93" s="131"/>
       <c r="DB93" s="5"/>
       <c r="DC93" s="5"/>
       <c r="DD93" s="5"/>
-    </row>
-    <row r="94" spans="1:108">
+      <c r="DE93" s="5"/>
+    </row>
+    <row r="94" spans="1:109">
       <c r="A94" s="5"/>
       <c r="B94" s="27"/>
       <c r="C94" s="27">
@@ -20645,7 +20761,7 @@
         <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CR94" s="175"/>
+      <c r="CR94" s="177"/>
       <c r="CS94" s="127"/>
       <c r="CT94" s="123"/>
       <c r="CU94" s="123"/>
@@ -20653,13 +20769,14 @@
       <c r="CW94" s="123"/>
       <c r="CX94" s="123"/>
       <c r="CY94" s="123"/>
-      <c r="CZ94" s="176"/>
+      <c r="CZ94" s="178"/>
       <c r="DA94" s="131"/>
       <c r="DB94" s="5"/>
       <c r="DC94" s="5"/>
       <c r="DD94" s="5"/>
-    </row>
-    <row r="95" spans="1:108">
+      <c r="DE94" s="5"/>
+    </row>
+    <row r="95" spans="1:109">
       <c r="A95" s="5"/>
       <c r="B95" s="27"/>
       <c r="C95" s="27">
@@ -20775,7 +20892,7 @@
         <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CR95" s="175"/>
+      <c r="CR95" s="177"/>
       <c r="CS95" s="127"/>
       <c r="CT95" s="123"/>
       <c r="CU95" s="123"/>
@@ -20783,13 +20900,14 @@
       <c r="CW95" s="123"/>
       <c r="CX95" s="123"/>
       <c r="CY95" s="123"/>
-      <c r="CZ95" s="176"/>
+      <c r="CZ95" s="178"/>
       <c r="DA95" s="131"/>
       <c r="DB95" s="5"/>
       <c r="DC95" s="5"/>
       <c r="DD95" s="5"/>
-    </row>
-    <row r="96" spans="1:108">
+      <c r="DE95" s="5"/>
+    </row>
+    <row r="96" spans="1:109">
       <c r="A96" s="5"/>
       <c r="B96" s="27"/>
       <c r="C96" s="27">
@@ -20905,7 +21023,7 @@
         <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CR96" s="175"/>
+      <c r="CR96" s="177"/>
       <c r="CS96" s="127"/>
       <c r="CT96" s="123"/>
       <c r="CU96" s="123"/>
@@ -20913,13 +21031,14 @@
       <c r="CW96" s="123"/>
       <c r="CX96" s="123"/>
       <c r="CY96" s="123"/>
-      <c r="CZ96" s="176"/>
+      <c r="CZ96" s="178"/>
       <c r="DA96" s="131"/>
       <c r="DB96" s="5"/>
       <c r="DC96" s="5"/>
       <c r="DD96" s="5"/>
-    </row>
-    <row r="97" spans="1:108">
+      <c r="DE96" s="5"/>
+    </row>
+    <row r="97" spans="1:109">
       <c r="A97" s="5"/>
       <c r="B97" s="27"/>
       <c r="C97" s="27">
@@ -21035,7 +21154,7 @@
         <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CR97" s="175"/>
+      <c r="CR97" s="177"/>
       <c r="CS97" s="127"/>
       <c r="CT97" s="123"/>
       <c r="CU97" s="123"/>
@@ -21043,13 +21162,14 @@
       <c r="CW97" s="123"/>
       <c r="CX97" s="123"/>
       <c r="CY97" s="123"/>
-      <c r="CZ97" s="176"/>
+      <c r="CZ97" s="178"/>
       <c r="DA97" s="131"/>
       <c r="DB97" s="5"/>
       <c r="DC97" s="5"/>
       <c r="DD97" s="5"/>
-    </row>
-    <row r="98" spans="1:108">
+      <c r="DE97" s="5"/>
+    </row>
+    <row r="98" spans="1:109">
       <c r="A98" s="5"/>
       <c r="B98" s="27"/>
       <c r="C98" s="27">
@@ -21165,7 +21285,7 @@
         <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CR98" s="175"/>
+      <c r="CR98" s="177"/>
       <c r="CS98" s="127"/>
       <c r="CT98" s="123"/>
       <c r="CU98" s="123"/>
@@ -21173,13 +21293,14 @@
       <c r="CW98" s="123"/>
       <c r="CX98" s="123"/>
       <c r="CY98" s="123"/>
-      <c r="CZ98" s="176"/>
+      <c r="CZ98" s="178"/>
       <c r="DA98" s="131"/>
       <c r="DB98" s="5"/>
       <c r="DC98" s="5"/>
       <c r="DD98" s="5"/>
-    </row>
-    <row r="99" spans="1:108">
+      <c r="DE98" s="5"/>
+    </row>
+    <row r="99" spans="1:109">
       <c r="A99" s="5"/>
       <c r="B99" s="27"/>
       <c r="C99" s="27">
@@ -21295,7 +21416,7 @@
         <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CR99" s="175"/>
+      <c r="CR99" s="177"/>
       <c r="CS99" s="127"/>
       <c r="CT99" s="123"/>
       <c r="CU99" s="123"/>
@@ -21303,13 +21424,14 @@
       <c r="CW99" s="123"/>
       <c r="CX99" s="123"/>
       <c r="CY99" s="123"/>
-      <c r="CZ99" s="176"/>
+      <c r="CZ99" s="178"/>
       <c r="DA99" s="131"/>
       <c r="DB99" s="5"/>
       <c r="DC99" s="5"/>
       <c r="DD99" s="5"/>
-    </row>
-    <row r="100" spans="1:108">
+      <c r="DE99" s="5"/>
+    </row>
+    <row r="100" spans="1:109">
       <c r="A100" s="5"/>
       <c r="B100" s="27"/>
       <c r="C100" s="27">
@@ -21425,7 +21547,7 @@
         <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CR100" s="175"/>
+      <c r="CR100" s="177"/>
       <c r="CS100" s="127"/>
       <c r="CT100" s="123"/>
       <c r="CU100" s="123"/>
@@ -21433,13 +21555,14 @@
       <c r="CW100" s="123"/>
       <c r="CX100" s="123"/>
       <c r="CY100" s="123"/>
-      <c r="CZ100" s="176"/>
+      <c r="CZ100" s="178"/>
       <c r="DA100" s="131"/>
       <c r="DB100" s="5"/>
       <c r="DC100" s="5"/>
       <c r="DD100" s="5"/>
-    </row>
-    <row r="101" spans="1:108">
+      <c r="DE100" s="5"/>
+    </row>
+    <row r="101" spans="1:109">
       <c r="A101" s="5"/>
       <c r="B101" s="27"/>
       <c r="C101" s="27">
@@ -21555,7 +21678,7 @@
         <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CR101" s="175"/>
+      <c r="CR101" s="177"/>
       <c r="CS101" s="127"/>
       <c r="CT101" s="123"/>
       <c r="CU101" s="123"/>
@@ -21563,18 +21686,19 @@
       <c r="CW101" s="123"/>
       <c r="CX101" s="123"/>
       <c r="CY101" s="123"/>
-      <c r="CZ101" s="176"/>
+      <c r="CZ101" s="178"/>
       <c r="DA101" s="131"/>
       <c r="DB101" s="5"/>
       <c r="DC101" s="5"/>
       <c r="DD101" s="5"/>
-    </row>
-    <row r="102" spans="1:108">
+      <c r="DE101" s="5"/>
+    </row>
+    <row r="102" spans="1:109">
       <c r="A102" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C102" s="4">
         <v>2022</v>
@@ -21696,8 +21820,9 @@
       <c r="DB102" s="5"/>
       <c r="DC102" s="5"/>
       <c r="DD102" s="5"/>
-    </row>
-    <row r="103" spans="1:108">
+      <c r="DE102" s="5"/>
+    </row>
+    <row r="103" spans="1:109">
       <c r="A103" s="4"/>
       <c r="B103" s="9"/>
       <c r="C103" s="4">
@@ -21820,8 +21945,9 @@
       <c r="DB103" s="5"/>
       <c r="DC103" s="5"/>
       <c r="DD103" s="5"/>
-    </row>
-    <row r="104" spans="1:108">
+      <c r="DE103" s="5"/>
+    </row>
+    <row r="104" spans="1:109">
       <c r="A104" s="4"/>
       <c r="B104" s="9"/>
       <c r="C104" s="4">
@@ -21944,8 +22070,9 @@
       <c r="DB104" s="5"/>
       <c r="DC104" s="5"/>
       <c r="DD104" s="5"/>
-    </row>
-    <row r="105" spans="1:108">
+      <c r="DE104" s="5"/>
+    </row>
+    <row r="105" spans="1:109">
       <c r="A105" s="4"/>
       <c r="B105" s="9"/>
       <c r="C105" s="4">
@@ -22068,8 +22195,9 @@
       <c r="DB105" s="5"/>
       <c r="DC105" s="5"/>
       <c r="DD105" s="5"/>
-    </row>
-    <row r="106" spans="1:108">
+      <c r="DE105" s="5"/>
+    </row>
+    <row r="106" spans="1:109">
       <c r="A106" s="4"/>
       <c r="B106" s="9"/>
       <c r="C106" s="4">
@@ -22192,8 +22320,9 @@
       <c r="DB106" s="5"/>
       <c r="DC106" s="5"/>
       <c r="DD106" s="5"/>
-    </row>
-    <row r="107" spans="1:108">
+      <c r="DE106" s="5"/>
+    </row>
+    <row r="107" spans="1:109">
       <c r="A107" s="4"/>
       <c r="B107" s="9"/>
       <c r="C107" s="4">
@@ -22316,8 +22445,9 @@
       <c r="DB107" s="5"/>
       <c r="DC107" s="5"/>
       <c r="DD107" s="5"/>
-    </row>
-    <row r="108" spans="1:108">
+      <c r="DE107" s="5"/>
+    </row>
+    <row r="108" spans="1:109">
       <c r="A108" s="4"/>
       <c r="B108" s="9"/>
       <c r="C108" s="4">
@@ -22440,8 +22570,9 @@
       <c r="DB108" s="5"/>
       <c r="DC108" s="5"/>
       <c r="DD108" s="5"/>
-    </row>
-    <row r="109" spans="1:108">
+      <c r="DE108" s="5"/>
+    </row>
+    <row r="109" spans="1:109">
       <c r="A109" s="4"/>
       <c r="B109" s="9"/>
       <c r="C109" s="4">
@@ -22564,8 +22695,9 @@
       <c r="DB109" s="5"/>
       <c r="DC109" s="5"/>
       <c r="DD109" s="5"/>
-    </row>
-    <row r="110" spans="1:108">
+      <c r="DE109" s="5"/>
+    </row>
+    <row r="110" spans="1:109">
       <c r="A110" s="4"/>
       <c r="B110" s="9"/>
       <c r="C110" s="4">
@@ -22688,8 +22820,9 @@
       <c r="DB110" s="5"/>
       <c r="DC110" s="5"/>
       <c r="DD110" s="5"/>
-    </row>
-    <row r="111" spans="1:108">
+      <c r="DE110" s="5"/>
+    </row>
+    <row r="111" spans="1:109">
       <c r="A111" s="4"/>
       <c r="B111" s="9"/>
       <c r="C111" s="4">
@@ -22812,8 +22945,9 @@
       <c r="DB111" s="5"/>
       <c r="DC111" s="5"/>
       <c r="DD111" s="5"/>
-    </row>
-    <row r="112" spans="1:108">
+      <c r="DE111" s="5"/>
+    </row>
+    <row r="112" spans="1:109">
       <c r="A112" s="4"/>
       <c r="B112" s="9"/>
       <c r="C112" s="4">
@@ -22936,8 +23070,9 @@
       <c r="DB112" s="5"/>
       <c r="DC112" s="5"/>
       <c r="DD112" s="5"/>
-    </row>
-    <row r="113" spans="1:108">
+      <c r="DE112" s="5"/>
+    </row>
+    <row r="113" spans="1:109">
       <c r="A113" s="4"/>
       <c r="B113" s="9"/>
       <c r="C113" s="4">
@@ -23060,11 +23195,12 @@
       <c r="DB113" s="5"/>
       <c r="DC113" s="5"/>
       <c r="DD113" s="5"/>
-    </row>
-    <row r="114" spans="1:108">
+      <c r="DE113" s="5"/>
+    </row>
+    <row r="114" spans="1:109">
       <c r="A114" s="4"/>
       <c r="B114" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C114" s="4">
         <v>2022</v>
@@ -23186,8 +23322,9 @@
       <c r="DB114" s="5"/>
       <c r="DC114" s="5"/>
       <c r="DD114" s="5"/>
-    </row>
-    <row r="115" spans="1:108">
+      <c r="DE114" s="5"/>
+    </row>
+    <row r="115" spans="1:109">
       <c r="A115" s="4"/>
       <c r="B115" s="9"/>
       <c r="C115" s="4">
@@ -23310,8 +23447,9 @@
       <c r="DB115" s="5"/>
       <c r="DC115" s="5"/>
       <c r="DD115" s="5"/>
-    </row>
-    <row r="116" spans="1:108">
+      <c r="DE115" s="5"/>
+    </row>
+    <row r="116" spans="1:109">
       <c r="A116" s="4"/>
       <c r="B116" s="9"/>
       <c r="C116" s="4">
@@ -23434,8 +23572,9 @@
       <c r="DB116" s="5"/>
       <c r="DC116" s="5"/>
       <c r="DD116" s="5"/>
-    </row>
-    <row r="117" spans="1:108">
+      <c r="DE116" s="5"/>
+    </row>
+    <row r="117" spans="1:109">
       <c r="A117" s="4"/>
       <c r="B117" s="9"/>
       <c r="C117" s="4">
@@ -23558,8 +23697,9 @@
       <c r="DB117" s="5"/>
       <c r="DC117" s="5"/>
       <c r="DD117" s="5"/>
-    </row>
-    <row r="118" spans="1:108">
+      <c r="DE117" s="5"/>
+    </row>
+    <row r="118" spans="1:109">
       <c r="A118" s="4"/>
       <c r="B118" s="9"/>
       <c r="C118" s="4">
@@ -23682,8 +23822,9 @@
       <c r="DB118" s="5"/>
       <c r="DC118" s="5"/>
       <c r="DD118" s="5"/>
-    </row>
-    <row r="119" spans="1:108">
+      <c r="DE118" s="5"/>
+    </row>
+    <row r="119" spans="1:109">
       <c r="A119" s="4"/>
       <c r="B119" s="9"/>
       <c r="C119" s="4">
@@ -23806,8 +23947,9 @@
       <c r="DB119" s="5"/>
       <c r="DC119" s="5"/>
       <c r="DD119" s="5"/>
-    </row>
-    <row r="120" spans="1:108">
+      <c r="DE119" s="5"/>
+    </row>
+    <row r="120" spans="1:109">
       <c r="A120" s="4"/>
       <c r="B120" s="9"/>
       <c r="C120" s="4">
@@ -23930,8 +24072,9 @@
       <c r="DB120" s="5"/>
       <c r="DC120" s="5"/>
       <c r="DD120" s="5"/>
-    </row>
-    <row r="121" spans="1:108">
+      <c r="DE120" s="5"/>
+    </row>
+    <row r="121" spans="1:109">
       <c r="A121" s="4"/>
       <c r="B121" s="9"/>
       <c r="C121" s="4">
@@ -24054,8 +24197,9 @@
       <c r="DB121" s="5"/>
       <c r="DC121" s="5"/>
       <c r="DD121" s="5"/>
-    </row>
-    <row r="122" spans="1:108">
+      <c r="DE121" s="5"/>
+    </row>
+    <row r="122" spans="1:109">
       <c r="A122" s="4"/>
       <c r="B122" s="9"/>
       <c r="C122" s="4">
@@ -24178,8 +24322,9 @@
       <c r="DB122" s="5"/>
       <c r="DC122" s="5"/>
       <c r="DD122" s="5"/>
-    </row>
-    <row r="123" spans="1:108">
+      <c r="DE122" s="5"/>
+    </row>
+    <row r="123" spans="1:109">
       <c r="A123" s="4"/>
       <c r="B123" s="9"/>
       <c r="C123" s="4">
@@ -24302,8 +24447,9 @@
       <c r="DB123" s="5"/>
       <c r="DC123" s="5"/>
       <c r="DD123" s="5"/>
-    </row>
-    <row r="124" spans="1:108">
+      <c r="DE123" s="5"/>
+    </row>
+    <row r="124" spans="1:109">
       <c r="A124" s="4"/>
       <c r="B124" s="9"/>
       <c r="C124" s="4">
@@ -24426,11 +24572,12 @@
       <c r="DB124" s="5"/>
       <c r="DC124" s="5"/>
       <c r="DD124" s="5"/>
-    </row>
-    <row r="125" spans="1:108">
+      <c r="DE124" s="5"/>
+    </row>
+    <row r="125" spans="1:109">
       <c r="A125" s="5"/>
       <c r="B125" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C125" s="4">
         <v>2022</v>
@@ -24552,8 +24699,9 @@
       <c r="DB125" s="5"/>
       <c r="DC125" s="5"/>
       <c r="DD125" s="5"/>
-    </row>
-    <row r="126" spans="1:108">
+      <c r="DE125" s="5"/>
+    </row>
+    <row r="126" spans="1:109">
       <c r="A126" s="5"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4">
@@ -24676,8 +24824,9 @@
       <c r="DB126" s="5"/>
       <c r="DC126" s="5"/>
       <c r="DD126" s="5"/>
-    </row>
-    <row r="127" spans="1:108">
+      <c r="DE126" s="5"/>
+    </row>
+    <row r="127" spans="1:109">
       <c r="A127" s="5"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4">
@@ -24800,8 +24949,9 @@
       <c r="DB127" s="5"/>
       <c r="DC127" s="5"/>
       <c r="DD127" s="5"/>
-    </row>
-    <row r="128" spans="1:108">
+      <c r="DE127" s="5"/>
+    </row>
+    <row r="128" spans="1:109">
       <c r="A128" s="5"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4">
@@ -24924,8 +25074,9 @@
       <c r="DB128" s="5"/>
       <c r="DC128" s="5"/>
       <c r="DD128" s="5"/>
-    </row>
-    <row r="129" spans="1:108">
+      <c r="DE128" s="5"/>
+    </row>
+    <row r="129" spans="1:109">
       <c r="A129" s="5"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4">
@@ -25048,8 +25199,9 @@
       <c r="DB129" s="5"/>
       <c r="DC129" s="5"/>
       <c r="DD129" s="5"/>
-    </row>
-    <row r="130" spans="1:108">
+      <c r="DE129" s="5"/>
+    </row>
+    <row r="130" spans="1:109">
       <c r="A130" s="5"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4">
@@ -25172,8 +25324,9 @@
       <c r="DB130" s="5"/>
       <c r="DC130" s="5"/>
       <c r="DD130" s="5"/>
-    </row>
-    <row r="131" spans="1:108">
+      <c r="DE130" s="5"/>
+    </row>
+    <row r="131" spans="1:109">
       <c r="A131" s="5"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4">
@@ -25296,8 +25449,9 @@
       <c r="DB131" s="5"/>
       <c r="DC131" s="5"/>
       <c r="DD131" s="5"/>
-    </row>
-    <row r="132" spans="1:108">
+      <c r="DE131" s="5"/>
+    </row>
+    <row r="132" spans="1:109">
       <c r="A132" s="5"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4">
@@ -25420,8 +25574,9 @@
       <c r="DB132" s="5"/>
       <c r="DC132" s="5"/>
       <c r="DD132" s="5"/>
-    </row>
-    <row r="133" spans="1:108">
+      <c r="DE132" s="5"/>
+    </row>
+    <row r="133" spans="1:109">
       <c r="A133" s="5"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4">
@@ -25544,8 +25699,9 @@
       <c r="DB133" s="5"/>
       <c r="DC133" s="5"/>
       <c r="DD133" s="5"/>
-    </row>
-    <row r="134" spans="1:108">
+      <c r="DE133" s="5"/>
+    </row>
+    <row r="134" spans="1:109">
       <c r="A134" s="5"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4">
@@ -25668,8 +25824,9 @@
       <c r="DB134" s="5"/>
       <c r="DC134" s="5"/>
       <c r="DD134" s="5"/>
-    </row>
-    <row r="135" spans="1:108">
+      <c r="DE134" s="5"/>
+    </row>
+    <row r="135" spans="1:109">
       <c r="A135" s="5"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4">
@@ -25792,8 +25949,9 @@
       <c r="DB135" s="5"/>
       <c r="DC135" s="5"/>
       <c r="DD135" s="5"/>
-    </row>
-    <row r="136" spans="1:108">
+      <c r="DE135" s="5"/>
+    </row>
+    <row r="136" spans="1:109">
       <c r="A136" s="5"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4">
@@ -25916,13 +26074,14 @@
       <c r="DB136" s="5"/>
       <c r="DC136" s="5"/>
       <c r="DD136" s="5"/>
-    </row>
-    <row r="137" spans="1:108">
+      <c r="DE136" s="5"/>
+    </row>
+    <row r="137" spans="1:109">
       <c r="A137" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C137" s="4">
         <v>2022</v>
@@ -26044,8 +26203,9 @@
       <c r="DB137" s="5"/>
       <c r="DC137" s="5"/>
       <c r="DD137" s="5"/>
-    </row>
-    <row r="138" spans="1:108">
+      <c r="DE137" s="5"/>
+    </row>
+    <row r="138" spans="1:109">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4">
@@ -26168,8 +26328,9 @@
       <c r="DB138" s="5"/>
       <c r="DC138" s="5"/>
       <c r="DD138" s="5"/>
-    </row>
-    <row r="139" spans="1:108">
+      <c r="DE138" s="5"/>
+    </row>
+    <row r="139" spans="1:109">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4">
@@ -26292,8 +26453,9 @@
       <c r="DB139" s="5"/>
       <c r="DC139" s="5"/>
       <c r="DD139" s="5"/>
-    </row>
-    <row r="140" spans="1:108">
+      <c r="DE139" s="5"/>
+    </row>
+    <row r="140" spans="1:109">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4">
@@ -26416,8 +26578,9 @@
       <c r="DB140" s="5"/>
       <c r="DC140" s="5"/>
       <c r="DD140" s="5"/>
-    </row>
-    <row r="141" spans="1:108">
+      <c r="DE140" s="5"/>
+    </row>
+    <row r="141" spans="1:109">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4">
@@ -26540,8 +26703,9 @@
       <c r="DB141" s="5"/>
       <c r="DC141" s="5"/>
       <c r="DD141" s="5"/>
-    </row>
-    <row r="142" spans="1:108">
+      <c r="DE141" s="5"/>
+    </row>
+    <row r="142" spans="1:109">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4">
@@ -26664,8 +26828,9 @@
       <c r="DB142" s="5"/>
       <c r="DC142" s="5"/>
       <c r="DD142" s="5"/>
-    </row>
-    <row r="143" spans="1:108">
+      <c r="DE142" s="5"/>
+    </row>
+    <row r="143" spans="1:109">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4">
@@ -26788,8 +26953,9 @@
       <c r="DB143" s="5"/>
       <c r="DC143" s="5"/>
       <c r="DD143" s="5"/>
-    </row>
-    <row r="144" spans="1:108">
+      <c r="DE143" s="5"/>
+    </row>
+    <row r="144" spans="1:109">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4">
@@ -26912,8 +27078,9 @@
       <c r="DB144" s="5"/>
       <c r="DC144" s="5"/>
       <c r="DD144" s="5"/>
-    </row>
-    <row r="145" spans="1:108">
+      <c r="DE144" s="5"/>
+    </row>
+    <row r="145" spans="1:109">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4">
@@ -27036,8 +27203,9 @@
       <c r="DB145" s="5"/>
       <c r="DC145" s="5"/>
       <c r="DD145" s="5"/>
-    </row>
-    <row r="146" spans="1:108">
+      <c r="DE145" s="5"/>
+    </row>
+    <row r="146" spans="1:109">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4">
@@ -27160,8 +27328,9 @@
       <c r="DB146" s="5"/>
       <c r="DC146" s="5"/>
       <c r="DD146" s="5"/>
-    </row>
-    <row r="147" spans="1:108">
+      <c r="DE146" s="5"/>
+    </row>
+    <row r="147" spans="1:109">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4">
@@ -27284,11 +27453,12 @@
       <c r="DB147" s="5"/>
       <c r="DC147" s="5"/>
       <c r="DD147" s="5"/>
-    </row>
-    <row r="148" spans="1:108">
+      <c r="DE147" s="5"/>
+    </row>
+    <row r="148" spans="1:109">
       <c r="A148" s="4"/>
       <c r="B148" s="9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C148" s="4">
         <v>2022</v>
@@ -27454,8 +27624,9 @@
       <c r="DB148" s="5"/>
       <c r="DC148" s="5"/>
       <c r="DD148" s="5"/>
-    </row>
-    <row r="149" spans="1:108">
+      <c r="DE148" s="5"/>
+    </row>
+    <row r="149" spans="1:109">
       <c r="A149" s="4"/>
       <c r="B149" s="9"/>
       <c r="C149" s="4">
@@ -27622,8 +27793,9 @@
       <c r="DB149" s="5"/>
       <c r="DC149" s="5"/>
       <c r="DD149" s="5"/>
-    </row>
-    <row r="150" spans="1:108">
+      <c r="DE149" s="5"/>
+    </row>
+    <row r="150" spans="1:109">
       <c r="A150" s="4"/>
       <c r="B150" s="9"/>
       <c r="C150" s="4">
@@ -27786,8 +27958,9 @@
       <c r="DB150" s="5"/>
       <c r="DC150" s="5"/>
       <c r="DD150" s="5"/>
-    </row>
-    <row r="151" spans="1:108">
+      <c r="DE150" s="5"/>
+    </row>
+    <row r="151" spans="1:109">
       <c r="A151" s="4"/>
       <c r="B151" s="9"/>
       <c r="C151" s="4">
@@ -27950,8 +28123,9 @@
       <c r="DB151" s="5"/>
       <c r="DC151" s="5"/>
       <c r="DD151" s="5"/>
-    </row>
-    <row r="152" spans="1:108">
+      <c r="DE151" s="5"/>
+    </row>
+    <row r="152" spans="1:109">
       <c r="A152" s="4"/>
       <c r="B152" s="9"/>
       <c r="C152" s="4">
@@ -28074,8 +28248,9 @@
       <c r="DB152" s="5"/>
       <c r="DC152" s="5"/>
       <c r="DD152" s="5"/>
-    </row>
-    <row r="153" spans="1:108">
+      <c r="DE152" s="5"/>
+    </row>
+    <row r="153" spans="1:109">
       <c r="A153" s="4"/>
       <c r="B153" s="9"/>
       <c r="C153" s="4">
@@ -28198,8 +28373,9 @@
       <c r="DB153" s="5"/>
       <c r="DC153" s="5"/>
       <c r="DD153" s="5"/>
-    </row>
-    <row r="154" spans="1:108">
+      <c r="DE153" s="5"/>
+    </row>
+    <row r="154" spans="1:109">
       <c r="A154" s="4"/>
       <c r="B154" s="9"/>
       <c r="C154" s="4">
@@ -28322,8 +28498,9 @@
       <c r="DB154" s="5"/>
       <c r="DC154" s="5"/>
       <c r="DD154" s="5"/>
-    </row>
-    <row r="155" spans="1:108">
+      <c r="DE154" s="5"/>
+    </row>
+    <row r="155" spans="1:109">
       <c r="A155" s="4"/>
       <c r="B155" s="9"/>
       <c r="C155" s="4">
@@ -28446,8 +28623,9 @@
       <c r="DB155" s="5"/>
       <c r="DC155" s="5"/>
       <c r="DD155" s="5"/>
-    </row>
-    <row r="156" spans="1:108">
+      <c r="DE155" s="5"/>
+    </row>
+    <row r="156" spans="1:109">
       <c r="A156" s="4"/>
       <c r="B156" s="9"/>
       <c r="C156" s="4">
@@ -28570,8 +28748,9 @@
       <c r="DB156" s="5"/>
       <c r="DC156" s="5"/>
       <c r="DD156" s="5"/>
-    </row>
-    <row r="157" spans="1:108">
+      <c r="DE156" s="5"/>
+    </row>
+    <row r="157" spans="1:109">
       <c r="A157" s="4"/>
       <c r="B157" s="9"/>
       <c r="C157" s="4">
@@ -28694,8 +28873,9 @@
       <c r="DB157" s="5"/>
       <c r="DC157" s="5"/>
       <c r="DD157" s="5"/>
-    </row>
-    <row r="158" spans="1:108">
+      <c r="DE157" s="5"/>
+    </row>
+    <row r="158" spans="1:109">
       <c r="A158" s="4"/>
       <c r="B158" s="9"/>
       <c r="C158" s="4">
@@ -28818,11 +28998,12 @@
       <c r="DB158" s="5"/>
       <c r="DC158" s="5"/>
       <c r="DD158" s="5"/>
+      <c r="DE158" s="5"/>
     </row>
     <row r="159" spans="1:95">
       <c r="A159" s="4"/>
       <c r="B159" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C159" s="4">
         <v>2022</v>
@@ -29946,7 +30127,7 @@
     <row r="170" spans="1:95">
       <c r="A170" s="4"/>
       <c r="B170" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C170" s="4">
         <v>2022</v>
@@ -31070,7 +31251,7 @@
     <row r="181" spans="1:95">
       <c r="A181" s="5"/>
       <c r="B181" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="123"/>
@@ -31169,7 +31350,7 @@
     <row r="182" spans="1:95">
       <c r="A182" s="5"/>
       <c r="B182" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="123"/>
@@ -31266,7 +31447,7 @@
       <c r="CQ182" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="108">
+  <mergeCells count="109">
     <mergeCell ref="P1:Y1"/>
     <mergeCell ref="AC1:AM1"/>
     <mergeCell ref="A3:A90"/>
@@ -31374,7 +31555,8 @@
     <mergeCell ref="DC1:DC2"/>
     <mergeCell ref="DD1:DD2"/>
     <mergeCell ref="DE1:DE2"/>
-    <mergeCell ref="DE3:DE13"/>
+    <mergeCell ref="DF1:DF2"/>
+    <mergeCell ref="DF3:DF13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -31406,25 +31588,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -31432,10 +31614,10 @@
         <v>2022</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D2" s="10">
         <v>443429314</v>
@@ -31450,10 +31632,10 @@
     <row r="3" spans="1:8">
       <c r="A3" s="4"/>
       <c r="B3" s="9" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D3" s="10">
         <v>146971232</v>
@@ -31464,16 +31646,16 @@
         <v>705.77</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4"/>
       <c r="B4" s="11" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D4" s="12">
         <v>9801987</v>
@@ -31484,16 +31666,16 @@
         <v>210.54</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="4"/>
       <c r="B5" s="11" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D5" s="12">
         <v>9738306</v>
@@ -31504,16 +31686,16 @@
         <v>259.22</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4"/>
       <c r="B6" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>404</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>401</v>
       </c>
       <c r="D6" s="12">
         <v>1281936</v>
@@ -31524,16 +31706,16 @@
         <v>8.3</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" ht="34" spans="1:8">
       <c r="A7" s="4"/>
       <c r="B7" s="13" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D7" s="13">
         <v>0</v>
@@ -31544,16 +31726,16 @@
         <v>8.3</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" ht="17" spans="1:8">
       <c r="A8" s="4"/>
       <c r="B8" s="13" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D8" s="13">
         <v>0</v>
@@ -31564,16 +31746,16 @@
         <v>0.91</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4"/>
       <c r="B9" s="13" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D9" s="13">
         <v>0</v>
@@ -31584,16 +31766,16 @@
         <v>0.91</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4"/>
       <c r="B10" s="14" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D10" s="15">
         <v>15260491</v>
@@ -31604,16 +31786,16 @@
         <v>157.58</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" ht="51" spans="1:8">
       <c r="A11" s="4"/>
       <c r="B11" s="6" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D11" s="12">
         <v>12841408</v>
@@ -31628,10 +31810,10 @@
     <row r="12" ht="34" spans="1:8">
       <c r="A12" s="4"/>
       <c r="B12" s="6" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D12" s="12">
         <v>247447</v>
@@ -31646,10 +31828,10 @@
     <row r="13" spans="1:8">
       <c r="A13" s="4"/>
       <c r="B13" s="6" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D13" s="12">
         <v>266479</v>
@@ -31664,10 +31846,10 @@
     <row r="14" spans="1:8">
       <c r="A14" s="4"/>
       <c r="B14" s="6" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D14" s="13">
         <v>0</v>
@@ -31682,10 +31864,10 @@
     <row r="15" spans="1:8">
       <c r="A15" s="4"/>
       <c r="B15" s="6" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D15" s="13">
         <v>0</v>
@@ -31700,10 +31882,10 @@
     <row r="16" spans="1:8">
       <c r="A16" s="4"/>
       <c r="B16" s="6" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D16" s="13">
         <v>0</v>
@@ -31720,10 +31902,10 @@
         <v>2021</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D17" s="10">
         <v>403117558</v>
@@ -31738,10 +31920,10 @@
     <row r="18" spans="1:8">
       <c r="A18" s="18"/>
       <c r="B18" s="9" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D18" s="10">
         <v>133610211</v>
@@ -31756,10 +31938,10 @@
     <row r="19" spans="1:8">
       <c r="A19" s="18"/>
       <c r="B19" s="11" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D19" s="12">
         <v>8910897</v>
@@ -31774,10 +31956,10 @@
     <row r="20" spans="1:8">
       <c r="A20" s="18"/>
       <c r="B20" s="11" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D20" s="12">
         <v>8853006</v>
@@ -31792,10 +31974,10 @@
     <row r="21" spans="1:8">
       <c r="A21" s="18"/>
       <c r="B21" s="11" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D21" s="12">
         <v>224952</v>
@@ -31810,10 +31992,10 @@
     <row r="22" spans="1:8">
       <c r="A22" s="18"/>
       <c r="B22" s="11" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D22" s="12">
         <v>242254</v>
@@ -31828,10 +32010,10 @@
     <row r="23" spans="1:8">
       <c r="A23" s="18"/>
       <c r="B23" s="13" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D23" s="13">
         <v>0</v>
@@ -31846,10 +32028,10 @@
     <row r="24" spans="1:8">
       <c r="A24" s="18"/>
       <c r="B24" s="13" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D24" s="13">
         <v>0</v>
@@ -31864,10 +32046,10 @@
     <row r="25" spans="1:8">
       <c r="A25" s="18"/>
       <c r="B25" s="13" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D25" s="13">
         <v>0</v>
@@ -31882,10 +32064,10 @@
     <row r="26" spans="1:7">
       <c r="A26" s="19"/>
       <c r="B26" s="14" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D26" s="15">
         <v>13873174</v>
@@ -31901,10 +32083,10 @@
         <v>2020</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D27" s="10">
         <v>310090429</v>
@@ -31918,10 +32100,10 @@
     <row r="28" spans="1:7">
       <c r="A28" s="4"/>
       <c r="B28" s="9" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D28" s="10">
         <v>102777085</v>
@@ -31935,10 +32117,10 @@
     <row r="29" spans="1:7">
       <c r="A29" s="4"/>
       <c r="B29" s="11" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D29" s="12">
         <v>6854536</v>
@@ -31952,10 +32134,10 @@
     <row r="30" spans="1:7">
       <c r="A30" s="4"/>
       <c r="B30" s="11" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D30" s="12">
         <v>6810005</v>
@@ -31969,10 +32151,10 @@
     <row r="31" spans="1:7">
       <c r="A31" s="4"/>
       <c r="B31" s="11" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D31" s="12">
         <v>173040</v>
@@ -31986,10 +32168,10 @@
     <row r="32" spans="1:7">
       <c r="A32" s="4"/>
       <c r="B32" s="11" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D32" s="12">
         <v>186349</v>
@@ -32003,10 +32185,10 @@
     <row r="33" spans="1:7">
       <c r="A33" s="4"/>
       <c r="B33" s="13" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D33" s="13">
         <v>0</v>
@@ -32020,10 +32202,10 @@
     <row r="34" spans="1:7">
       <c r="A34" s="4"/>
       <c r="B34" s="13" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D34" s="13">
         <v>0</v>
@@ -32037,10 +32219,10 @@
     <row r="35" spans="1:7">
       <c r="A35" s="4"/>
       <c r="B35" s="13" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D35" s="13">
         <v>0</v>
@@ -32054,10 +32236,10 @@
     <row r="36" spans="1:7">
       <c r="A36" s="4"/>
       <c r="B36" s="14" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D36" s="15">
         <v>10671672</v>
@@ -32073,10 +32255,10 @@
         <v>2019</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D37" s="10">
         <v>258408691</v>
@@ -32090,10 +32272,10 @@
     <row r="38" spans="1:7">
       <c r="A38" s="4"/>
       <c r="B38" s="9" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D38" s="10">
         <v>85647571</v>
@@ -32107,16 +32289,16 @@
     <row r="39" spans="1:7">
       <c r="A39" s="4"/>
       <c r="B39" s="11" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D39" s="12">
         <v>5712113</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="F39" s="12">
         <v>-209968</v>
@@ -32128,10 +32310,10 @@
     <row r="40" spans="1:7">
       <c r="A40" s="4"/>
       <c r="B40" s="11" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D40" s="12">
         <v>5675004</v>
@@ -32145,10 +32327,10 @@
     <row r="41" spans="1:7">
       <c r="A41" s="4"/>
       <c r="B41" s="11" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D41" s="12">
         <v>144200</v>
@@ -32162,10 +32344,10 @@
     <row r="42" spans="1:7">
       <c r="A42" s="4"/>
       <c r="B42" s="11" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D42" s="12">
         <v>155291</v>
@@ -32179,10 +32361,10 @@
     <row r="43" spans="1:7">
       <c r="A43" s="4"/>
       <c r="B43" s="13" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D43" s="13">
         <v>0</v>
@@ -32196,10 +32378,10 @@
     <row r="44" spans="1:7">
       <c r="A44" s="4"/>
       <c r="B44" s="13" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D44" s="13">
         <v>0</v>
@@ -32213,10 +32395,10 @@
     <row r="45" spans="1:7">
       <c r="A45" s="4"/>
       <c r="B45" s="13" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D45" s="13">
         <v>0</v>
@@ -32230,16 +32412,16 @@
     <row r="46" spans="1:7">
       <c r="A46" s="4"/>
       <c r="B46" s="14" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D46" s="15">
         <v>8893060</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="F46" s="15">
         <v>-250000</v>
@@ -32253,10 +32435,10 @@
         <v>2018</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D47" s="10">
         <v>258408691</v>
@@ -32270,10 +32452,10 @@
     <row r="48" spans="1:7">
       <c r="A48" s="4"/>
       <c r="B48" s="9" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D48" s="10">
         <v>85647571</v>
@@ -32287,16 +32469,16 @@
     <row r="49" spans="1:7">
       <c r="A49" s="4"/>
       <c r="B49" s="11" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D49" s="12">
         <v>5922081</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F49" s="12">
         <v>-68200</v>
@@ -32308,10 +32490,10 @@
     <row r="50" spans="1:7">
       <c r="A50" s="4"/>
       <c r="B50" s="11" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D50" s="12">
         <v>14444395</v>
@@ -32325,10 +32507,10 @@
     <row r="51" spans="1:7">
       <c r="A51" s="4"/>
       <c r="B51" s="11" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D51" s="12">
         <v>13638652</v>
@@ -32342,10 +32524,10 @@
     <row r="52" spans="1:7">
       <c r="A52" s="4"/>
       <c r="B52" s="11" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D52" s="12">
         <v>16151562</v>
@@ -32359,10 +32541,10 @@
     <row r="53" spans="1:7">
       <c r="A53" s="4"/>
       <c r="B53" s="13" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D53" s="13">
         <v>0</v>
@@ -32376,10 +32558,10 @@
     <row r="54" spans="1:7">
       <c r="A54" s="4"/>
       <c r="B54" s="13" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D54" s="13">
         <v>0</v>
@@ -32393,10 +32575,10 @@
     <row r="55" spans="1:7">
       <c r="A55" s="4"/>
       <c r="B55" s="13" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D55" s="13">
         <v>0</v>
@@ -32410,10 +32592,10 @@
     <row r="56" spans="1:7">
       <c r="A56" s="4"/>
       <c r="B56" s="14" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D56" s="15">
         <v>9143060</v>
@@ -32429,10 +32611,10 @@
         <v>2017</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D57" s="10">
         <v>258408691</v>
@@ -32446,10 +32628,10 @@
     <row r="58" spans="1:7">
       <c r="A58" s="4"/>
       <c r="B58" s="9" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D58" s="10">
         <v>85647571</v>
@@ -32463,10 +32645,10 @@
     <row r="59" spans="1:7">
       <c r="A59" s="4"/>
       <c r="B59" s="11" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D59" s="12">
         <v>5990281</v>
@@ -32480,10 +32662,10 @@
     <row r="60" spans="1:7">
       <c r="A60" s="4"/>
       <c r="B60" s="11" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D60" s="12">
         <v>14444395</v>
@@ -32497,10 +32679,10 @@
     <row r="61" spans="1:7">
       <c r="A61" s="4"/>
       <c r="B61" s="11" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D61" s="12">
         <v>13872229</v>
@@ -32514,10 +32696,10 @@
     <row r="62" spans="1:7">
       <c r="A62" s="4"/>
       <c r="B62" s="11" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D62" s="12">
         <v>16151562</v>
@@ -32531,10 +32713,10 @@
     <row r="63" spans="1:7">
       <c r="A63" s="4"/>
       <c r="B63" s="13" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D63" s="13">
         <v>0</v>
@@ -32548,10 +32730,10 @@
     <row r="64" spans="1:7">
       <c r="A64" s="4"/>
       <c r="B64" s="13" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D64" s="13">
         <v>0</v>
@@ -32565,10 +32747,10 @@
     <row r="65" spans="1:7">
       <c r="A65" s="4"/>
       <c r="B65" s="13" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D65" s="13">
         <v>0</v>
@@ -32582,10 +32764,10 @@
     <row r="66" spans="1:7">
       <c r="A66" s="4"/>
       <c r="B66" s="14" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D66" s="15">
         <v>9143060</v>
@@ -32601,10 +32783,10 @@
         <v>2016</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D67" s="10">
         <v>258408691</v>
@@ -32618,10 +32800,10 @@
     <row r="68" spans="1:7">
       <c r="A68" s="18"/>
       <c r="B68" s="9" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D68" s="10">
         <v>85647571</v>
@@ -32635,10 +32817,10 @@
     <row r="69" spans="1:7">
       <c r="A69" s="18"/>
       <c r="B69" s="11" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D69" s="12">
         <v>5990281</v>
@@ -32652,10 +32834,10 @@
     <row r="70" spans="1:7">
       <c r="A70" s="18"/>
       <c r="B70" s="11" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D70" s="12">
         <v>14444395</v>
@@ -32669,10 +32851,10 @@
     <row r="71" spans="1:7">
       <c r="A71" s="18"/>
       <c r="B71" s="11" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D71" s="12">
         <v>13872229</v>
@@ -32686,10 +32868,10 @@
     <row r="72" spans="1:7">
       <c r="A72" s="18"/>
       <c r="B72" s="11" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D72" s="12">
         <v>16151562</v>
@@ -32703,10 +32885,10 @@
     <row r="73" spans="1:7">
       <c r="A73" s="18"/>
       <c r="B73" s="13" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D73" s="13">
         <v>0</v>
@@ -32720,10 +32902,10 @@
     <row r="74" spans="1:7">
       <c r="A74" s="18"/>
       <c r="B74" s="13" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D74" s="13">
         <v>0</v>
@@ -32737,10 +32919,10 @@
     <row r="75" spans="1:7">
       <c r="A75" s="18"/>
       <c r="B75" s="13" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D75" s="13">
         <v>0</v>
@@ -32754,10 +32936,10 @@
     <row r="76" spans="1:7">
       <c r="A76" s="18"/>
       <c r="B76" s="14" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D76" s="15">
         <v>9143060</v>
@@ -32771,10 +32953,10 @@
     <row r="77" ht="34" spans="1:7">
       <c r="A77" s="18"/>
       <c r="B77" s="22" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D77" s="12">
         <v>51939889</v>
@@ -32788,10 +32970,10 @@
     <row r="78" ht="34" spans="1:7">
       <c r="A78" s="18"/>
       <c r="B78" s="22" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D78" s="13">
         <v>0</v>
@@ -32805,10 +32987,10 @@
     <row r="79" ht="34" spans="1:7">
       <c r="A79" s="19"/>
       <c r="B79" s="22" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D79" s="13">
         <v>0</v>
@@ -32824,10 +33006,10 @@
         <v>2015</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D80" s="10">
         <v>258408691</v>
@@ -32841,10 +33023,10 @@
     <row r="81" spans="1:7">
       <c r="A81" s="4"/>
       <c r="B81" s="9" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D81" s="10">
         <v>85647571</v>
@@ -32858,10 +33040,10 @@
     <row r="82" spans="1:7">
       <c r="A82" s="4"/>
       <c r="B82" s="11" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D82" s="12">
         <v>5990281</v>
@@ -32875,10 +33057,10 @@
     <row r="83" spans="1:7">
       <c r="A83" s="4"/>
       <c r="B83" s="11" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D83" s="12">
         <v>14444395</v>
@@ -32892,10 +33074,10 @@
     <row r="84" spans="1:7">
       <c r="A84" s="4"/>
       <c r="B84" s="11" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D84" s="12">
         <v>16151562</v>
@@ -32909,10 +33091,10 @@
     <row r="85" ht="17" spans="1:7">
       <c r="A85" s="4"/>
       <c r="B85" s="16" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D85" s="12">
         <v>51939889</v>
@@ -32926,10 +33108,10 @@
     <row r="86" ht="17" spans="1:7">
       <c r="A86" s="4"/>
       <c r="B86" s="23" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D86" s="13">
         <v>0</v>
@@ -32943,10 +33125,10 @@
     <row r="87" ht="17" spans="1:7">
       <c r="A87" s="4"/>
       <c r="B87" s="23" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D87" s="13">
         <v>0</v>
@@ -32960,10 +33142,10 @@
     <row r="88" spans="1:7">
       <c r="A88" s="4"/>
       <c r="B88" s="14" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D88" s="15">
         <v>9143060</v>
@@ -32977,10 +33159,10 @@
     <row r="89" ht="51" spans="1:7">
       <c r="A89" s="4"/>
       <c r="B89" s="22" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D89" s="13">
         <v>0</v>
@@ -32996,10 +33178,10 @@
         <v>2015</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D90" s="10">
         <v>258408691</v>
@@ -33013,10 +33195,10 @@
     <row r="91" spans="1:7">
       <c r="A91" s="4"/>
       <c r="B91" s="9" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D91" s="10">
         <v>85647571</v>
@@ -33030,10 +33212,10 @@
     <row r="92" spans="1:7">
       <c r="A92" s="4"/>
       <c r="B92" s="11" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D92" s="12">
         <v>5990281</v>
@@ -33047,10 +33229,10 @@
     <row r="93" spans="1:7">
       <c r="A93" s="4"/>
       <c r="B93" s="11" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D93" s="12">
         <v>14444395</v>
@@ -33064,10 +33246,10 @@
     <row r="94" spans="1:7">
       <c r="A94" s="4"/>
       <c r="B94" s="11" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D94" s="12">
         <v>16151562</v>
@@ -33081,10 +33263,10 @@
     <row r="95" ht="17" spans="1:7">
       <c r="A95" s="4"/>
       <c r="B95" s="16" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D95" s="12">
         <v>51939889</v>
@@ -33098,10 +33280,10 @@
     <row r="96" ht="17" spans="1:7">
       <c r="A96" s="4"/>
       <c r="B96" s="23" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D96" s="13">
         <v>0</v>
@@ -33115,10 +33297,10 @@
     <row r="97" ht="17" spans="1:7">
       <c r="A97" s="4"/>
       <c r="B97" s="23" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D97" s="13">
         <v>0</v>
@@ -33132,10 +33314,10 @@
     <row r="98" spans="1:7">
       <c r="A98" s="4"/>
       <c r="B98" s="14" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D98" s="15">
         <v>9143060</v>
@@ -33149,10 +33331,10 @@
     <row r="99" ht="51" spans="1:7">
       <c r="A99" s="4"/>
       <c r="B99" s="22" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D99" s="13">
         <v>0</v>
@@ -33168,10 +33350,10 @@
         <v>2014</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D100" s="10">
         <v>143560384</v>
@@ -33185,10 +33367,10 @@
     <row r="101" spans="1:7">
       <c r="A101" s="4"/>
       <c r="B101" s="9" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D101" s="10">
         <v>47581984</v>
@@ -33202,10 +33384,10 @@
     <row r="102" spans="1:7">
       <c r="A102" s="4"/>
       <c r="B102" s="11" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D102" s="12">
         <v>3327934</v>
@@ -33219,10 +33401,10 @@
     <row r="103" spans="1:7">
       <c r="A103" s="4"/>
       <c r="B103" s="11" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D103" s="12">
         <v>8024664</v>
@@ -33236,10 +33418,10 @@
     <row r="104" spans="1:7">
       <c r="A104" s="4"/>
       <c r="B104" s="11" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D104" s="12">
         <v>8973090</v>
@@ -33253,10 +33435,10 @@
     <row r="105" ht="17" spans="1:7">
       <c r="A105" s="4"/>
       <c r="B105" s="16" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D105" s="12">
         <v>28855494</v>
@@ -33270,10 +33452,10 @@
     <row r="106" ht="17" spans="1:7">
       <c r="A106" s="4"/>
       <c r="B106" s="23" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D106" s="13">
         <v>0</v>
@@ -33287,10 +33469,10 @@
     <row r="107" ht="17" spans="1:7">
       <c r="A107" s="4"/>
       <c r="B107" s="23" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D107" s="13">
         <v>0</v>
@@ -33304,10 +33486,10 @@
     <row r="108" ht="17" spans="1:7">
       <c r="A108" s="4"/>
       <c r="B108" s="23" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D108" s="13">
         <v>0</v>
@@ -33321,10 +33503,10 @@
     <row r="109" spans="1:7">
       <c r="A109" s="4"/>
       <c r="B109" s="14" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D109" s="15">
         <v>5079478</v>
@@ -33340,10 +33522,10 @@
         <v>2013</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D110" s="10">
         <v>75759988</v>
@@ -33357,10 +33539,10 @@
     <row r="111" spans="1:7">
       <c r="A111" s="4"/>
       <c r="B111" s="9" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D111" s="10">
         <v>25110065</v>
@@ -33374,10 +33556,10 @@
     <row r="112" spans="1:7">
       <c r="A112" s="4"/>
       <c r="B112" s="11" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D112" s="12">
         <v>1756224</v>
@@ -33391,10 +33573,10 @@
     <row r="113" spans="1:7">
       <c r="A113" s="4"/>
       <c r="B113" s="11" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D113" s="12">
         <v>4234792</v>
@@ -33408,10 +33590,10 @@
     <row r="114" spans="1:7">
       <c r="A114" s="4"/>
       <c r="B114" s="11" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D114" s="12">
         <v>4735297</v>
@@ -33425,10 +33607,10 @@
     <row r="115" ht="17" spans="1:7">
       <c r="A115" s="4"/>
       <c r="B115" s="16" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D115" s="12">
         <v>15227682</v>
@@ -33442,10 +33624,10 @@
     <row r="116" ht="17" spans="1:7">
       <c r="A116" s="4"/>
       <c r="B116" s="23" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D116" s="13">
         <v>0</v>
@@ -33459,10 +33641,10 @@
     <row r="117" ht="17" spans="1:7">
       <c r="A117" s="4"/>
       <c r="B117" s="23" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D117" s="13">
         <v>0</v>
@@ -33476,10 +33658,10 @@
     <row r="118" ht="17" spans="1:7">
       <c r="A118" s="4"/>
       <c r="B118" s="23" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D118" s="13">
         <v>0</v>
@@ -33493,10 +33675,10 @@
     <row r="119" spans="1:7">
       <c r="A119" s="4"/>
       <c r="B119" s="14" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D119" s="15">
         <v>2680552</v>
@@ -33555,22 +33737,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -33578,10 +33760,10 @@
         <v>2022</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -33591,10 +33773,10 @@
     <row r="3" spans="1:7">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -33604,10 +33786,10 @@
     <row r="4" spans="1:7">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -33617,10 +33799,10 @@
     <row r="5" spans="1:7">
       <c r="A5" s="4"/>
       <c r="B5" s="6" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -33630,10 +33812,10 @@
     <row r="6" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="6" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -33708,10 +33890,10 @@
         <v>2021</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -33721,10 +33903,10 @@
     <row r="15" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -33734,10 +33916,10 @@
     <row r="16" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -33812,10 +33994,10 @@
         <v>2020</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -33825,10 +34007,10 @@
     <row r="25" spans="1:7">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -33838,10 +34020,10 @@
     <row r="26" spans="1:7">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -33916,10 +34098,10 @@
         <v>2019</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -33929,10 +34111,10 @@
     <row r="35" spans="1:7">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -33942,10 +34124,10 @@
     <row r="36" spans="1:7">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -34020,10 +34202,10 @@
         <v>2018</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -34033,10 +34215,10 @@
     <row r="45" spans="1:7">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -34046,10 +34228,10 @@
     <row r="46" spans="1:7">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -34124,10 +34306,10 @@
         <v>2017</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -34137,10 +34319,10 @@
     <row r="55" spans="1:7">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -34150,10 +34332,10 @@
     <row r="56" spans="1:7">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -34228,10 +34410,10 @@
         <v>2016</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -34241,10 +34423,10 @@
     <row r="65" spans="1:7">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -34254,10 +34436,10 @@
     <row r="66" spans="1:7">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -34332,10 +34514,10 @@
         <v>2015</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -34345,10 +34527,10 @@
     <row r="75" spans="1:7">
       <c r="A75" s="4"/>
       <c r="B75" s="4" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -34358,10 +34540,10 @@
     <row r="76" spans="1:7">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -34436,10 +34618,10 @@
         <v>2014</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D84" s="8">
         <v>1488989</v>
@@ -34453,10 +34635,10 @@
     <row r="85" spans="1:7">
       <c r="A85" s="4"/>
       <c r="B85" s="4" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D85" s="8">
         <v>2277008</v>
@@ -34470,10 +34652,10 @@
     <row r="86" spans="1:7">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D86" s="8">
         <v>7706794</v>
@@ -34487,10 +34669,10 @@
     <row r="87" spans="1:7">
       <c r="A87" s="4"/>
       <c r="B87" s="6" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -34556,10 +34738,10 @@
         <v>2013</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D94" s="8">
         <v>1663791</v>
@@ -34573,10 +34755,10 @@
     <row r="95" spans="1:7">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D95" s="8">
         <v>1201627</v>
@@ -34590,10 +34772,10 @@
     <row r="96" spans="1:7">
       <c r="A96" s="4"/>
       <c r="B96" s="4" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D96" s="8">
         <v>462164</v>
@@ -34707,25 +34889,25 @@
   <sheetData>
     <row r="1" ht="17" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -34740,7 +34922,7 @@
   <dimension ref="A1:FO47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="EB3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="DP3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -34823,27 +35005,27 @@
         <v>0</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D1" s="62"/>
       <c r="E1" s="76" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F1" s="76"/>
       <c r="G1" s="76" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H1" s="76" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J1" s="76" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K1" s="76" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L1" s="76" t="s">
         <v>59</v>
@@ -34855,14 +35037,14 @@
         <v>56</v>
       </c>
       <c r="O1" s="76" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P1" s="76" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q1" s="62"/>
       <c r="R1" s="76" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="S1" s="76"/>
       <c r="T1" s="76"/>
@@ -34870,26 +35052,26 @@
       <c r="V1" s="76"/>
       <c r="W1" s="76"/>
       <c r="X1" s="76" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Y1" s="76"/>
       <c r="Z1" s="76"/>
       <c r="AA1" s="76"/>
       <c r="AB1" s="76"/>
       <c r="AC1" s="76" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AD1" s="76" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AE1" s="62" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AF1" s="92" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AG1" s="92" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AH1" s="62"/>
       <c r="AI1" s="62"/>
@@ -34900,63 +35082,63 @@
       <c r="AN1" s="62"/>
       <c r="AO1" s="62"/>
       <c r="AP1" s="90" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AQ1" s="90"/>
       <c r="AR1" s="90"/>
       <c r="AS1" s="90"/>
       <c r="AT1" s="90"/>
       <c r="AU1" s="90" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AV1" s="90"/>
       <c r="AW1" s="90"/>
       <c r="AX1" s="90"/>
       <c r="AY1" s="90"/>
       <c r="AZ1" s="90" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="BA1" s="90"/>
       <c r="BB1" s="90"/>
       <c r="BC1" s="90"/>
       <c r="BD1" s="62"/>
       <c r="BE1" s="90" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="BF1" s="90"/>
       <c r="BG1" s="90"/>
       <c r="BH1" s="90"/>
       <c r="BI1" s="90"/>
       <c r="BJ1" s="90" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="BK1" s="90"/>
       <c r="BL1" s="90"/>
       <c r="BM1" s="90"/>
       <c r="BN1" s="90"/>
       <c r="BO1" s="62" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="BP1" s="62"/>
       <c r="BQ1" s="62"/>
       <c r="BR1" s="62"/>
       <c r="BS1" s="62"/>
       <c r="BT1" s="90" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="BU1" s="90"/>
       <c r="BV1" s="90"/>
       <c r="BW1" s="90"/>
       <c r="BX1" s="90"/>
       <c r="BY1" s="90" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="BZ1" s="90"/>
       <c r="CA1" s="90"/>
       <c r="CB1" s="90"/>
       <c r="CC1" s="90"/>
       <c r="CD1" s="62" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="CE1" s="62"/>
       <c r="CF1" s="62"/>
@@ -34965,7 +35147,7 @@
       <c r="CI1" s="90"/>
       <c r="CJ1" s="90"/>
       <c r="CK1" s="90" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="CL1" s="90"/>
       <c r="CM1" s="90"/>
@@ -34990,34 +35172,34 @@
       <c r="DF1" s="90"/>
       <c r="DG1" s="90"/>
       <c r="DH1" s="90" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="DI1" s="90"/>
       <c r="DJ1" s="90"/>
       <c r="DK1" s="90"/>
       <c r="DL1" s="90"/>
       <c r="DM1" s="90" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="DN1" s="90"/>
       <c r="DO1" s="90"/>
       <c r="DP1" s="90"/>
       <c r="DQ1" s="90"/>
       <c r="DR1" s="62" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="DS1" s="62"/>
       <c r="DT1" s="62"/>
       <c r="DU1" s="62"/>
       <c r="DV1" s="62"/>
       <c r="DW1" s="62" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="DX1" s="62" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="DY1" s="76" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="DZ1" s="76"/>
       <c r="EA1" s="76"/>
@@ -35035,7 +35217,7 @@
       <c r="EM1" s="76"/>
       <c r="EN1" s="76"/>
       <c r="EO1" s="76" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="EP1" s="62"/>
       <c r="EQ1" s="62"/>
@@ -35052,7 +35234,7 @@
       <c r="FB1" s="62"/>
       <c r="FC1" s="76"/>
       <c r="FD1" s="76" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="FE1" s="62"/>
       <c r="FF1" s="76"/>
@@ -35083,62 +35265,62 @@
       <c r="O2" s="76"/>
       <c r="P2" s="76"/>
       <c r="Q2" s="62" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="R2" s="85" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="S2" s="85" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="T2" s="85" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="U2" s="85" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="V2" s="85" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="W2" s="85" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="X2" s="85" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Y2" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z2" s="85" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA2" s="68" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB2" s="87" t="s">
         <v>175</v>
-      </c>
-      <c r="Z2" s="85" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA2" s="68" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB2" s="87" t="s">
-        <v>173</v>
       </c>
       <c r="AC2" s="76"/>
       <c r="AD2" s="76"/>
       <c r="AE2" s="62"/>
       <c r="AF2" s="92"/>
       <c r="AG2" s="92" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AH2" s="62" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AI2" s="76" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AJ2" s="76" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK2" s="76" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AL2" s="76" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AM2" s="62" t="s">
         <v>54</v>
@@ -35147,390 +35329,390 @@
         <v>56</v>
       </c>
       <c r="AO2" s="62" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AP2" s="76" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AQ2" s="76" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AR2" s="85" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS2" s="76" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT2" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU2" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="AS2" s="76" t="s">
+      <c r="AV2" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="AT2" s="76" t="s">
-        <v>173</v>
-      </c>
-      <c r="AU2" s="76" t="s">
-        <v>179</v>
-      </c>
-      <c r="AV2" s="76" t="s">
-        <v>180</v>
-      </c>
       <c r="AW2" s="85" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX2" s="76" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY2" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="AZ2" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="AX2" s="76" t="s">
+      <c r="BA2" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="AY2" s="76" t="s">
-        <v>173</v>
-      </c>
-      <c r="AZ2" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="BA2" s="62" t="s">
-        <v>180</v>
-      </c>
       <c r="BB2" s="68" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC2" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD2" s="62" t="s">
+        <v>175</v>
+      </c>
+      <c r="BE2" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="BC2" s="62" t="s">
+      <c r="BF2" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="BD2" s="62" t="s">
-        <v>173</v>
-      </c>
-      <c r="BE2" s="76" t="s">
-        <v>179</v>
-      </c>
-      <c r="BF2" s="76" t="s">
-        <v>180</v>
-      </c>
       <c r="BG2" s="85" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BH2" s="76" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI2" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="BJ2" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="BK2" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="BI2" s="76" t="s">
-        <v>173</v>
-      </c>
-      <c r="BJ2" s="76" t="s">
-        <v>179</v>
-      </c>
-      <c r="BK2" s="76" t="s">
-        <v>180</v>
-      </c>
       <c r="BL2" s="85" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BM2" s="76" t="s">
+        <v>184</v>
+      </c>
+      <c r="BN2" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="BO2" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="BP2" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="BN2" s="76" t="s">
-        <v>173</v>
-      </c>
-      <c r="BO2" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="BP2" s="62" t="s">
-        <v>180</v>
-      </c>
       <c r="BQ2" s="68" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BR2" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="BS2" s="62" t="s">
+        <v>175</v>
+      </c>
+      <c r="BT2" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="BU2" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="BS2" s="62" t="s">
-        <v>173</v>
-      </c>
-      <c r="BT2" s="76" t="s">
-        <v>179</v>
-      </c>
-      <c r="BU2" s="76" t="s">
-        <v>180</v>
-      </c>
       <c r="BV2" s="85" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BW2" s="76" t="s">
+        <v>184</v>
+      </c>
+      <c r="BX2" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="BY2" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="BZ2" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="BX2" s="76" t="s">
-        <v>173</v>
-      </c>
-      <c r="BY2" s="76" t="s">
-        <v>179</v>
-      </c>
-      <c r="BZ2" s="76" t="s">
-        <v>180</v>
-      </c>
       <c r="CA2" s="85" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="CB2" s="76" t="s">
+        <v>184</v>
+      </c>
+      <c r="CC2" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="CD2" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="CE2" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="CC2" s="76" t="s">
-        <v>173</v>
-      </c>
-      <c r="CD2" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="CE2" s="62" t="s">
-        <v>180</v>
-      </c>
       <c r="CF2" s="68" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="CG2" s="62" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="CH2" s="62" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="CI2" s="76" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CJ2" s="76" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="CK2" s="97" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="CL2" s="98" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="CM2" s="99" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="CN2" s="99" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="CO2" s="99" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="CP2" s="99" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="CQ2" s="100" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="CR2" s="100" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="CS2" s="100" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="CT2" s="85" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="CU2" s="85" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="CV2" s="85" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="CW2" s="85" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CX2" s="85" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CY2" s="85" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="CZ2" s="85" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="DA2" s="85" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="DB2" s="85" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="DC2" s="85" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="DD2" s="85" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="DE2" s="85" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="DF2" s="76" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="DG2" s="76" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="DH2" s="76" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="DI2" s="76" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="DJ2" s="76" t="s">
+        <v>212</v>
+      </c>
+      <c r="DK2" s="76" t="s">
+        <v>213</v>
+      </c>
+      <c r="DL2" s="90" t="s">
+        <v>175</v>
+      </c>
+      <c r="DM2" s="76" t="s">
         <v>210</v>
       </c>
-      <c r="DK2" s="76" t="s">
+      <c r="DN2" s="76" t="s">
         <v>211</v>
       </c>
-      <c r="DL2" s="90" t="s">
-        <v>173</v>
-      </c>
-      <c r="DM2" s="76" t="s">
-        <v>208</v>
-      </c>
-      <c r="DN2" s="76" t="s">
-        <v>209</v>
-      </c>
       <c r="DO2" s="76" t="s">
+        <v>212</v>
+      </c>
+      <c r="DP2" s="76" t="s">
+        <v>213</v>
+      </c>
+      <c r="DQ2" s="90" t="s">
+        <v>175</v>
+      </c>
+      <c r="DR2" s="76" t="s">
         <v>210</v>
       </c>
-      <c r="DP2" s="76" t="s">
+      <c r="DS2" s="76" t="s">
         <v>211</v>
       </c>
-      <c r="DQ2" s="90" t="s">
-        <v>173</v>
-      </c>
-      <c r="DR2" s="76" t="s">
-        <v>208</v>
-      </c>
-      <c r="DS2" s="76" t="s">
-        <v>209</v>
-      </c>
       <c r="DT2" s="76" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="DU2" s="76" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="DV2" s="90" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="DW2" s="62"/>
       <c r="DX2" s="62"/>
       <c r="DY2" s="76" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="DZ2" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="EA2" s="102" t="s">
+        <v>138</v>
+      </c>
+      <c r="EB2" s="101" t="s">
+        <v>215</v>
+      </c>
+      <c r="EC2" s="101" t="s">
+        <v>216</v>
+      </c>
+      <c r="ED2" s="62" t="s">
+        <v>210</v>
+      </c>
+      <c r="EE2" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="EF2" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="EA2" s="102" t="s">
+      <c r="EG2" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="EH2" s="104" t="s">
+        <v>217</v>
+      </c>
+      <c r="EI2" s="104" t="s">
+        <v>218</v>
+      </c>
+      <c r="EJ2" s="105" t="s">
+        <v>219</v>
+      </c>
+      <c r="EK2" s="105" t="s">
+        <v>220</v>
+      </c>
+      <c r="EL2" s="105" t="s">
+        <v>221</v>
+      </c>
+      <c r="EM2" s="105" t="s">
+        <v>222</v>
+      </c>
+      <c r="EN2" s="62" t="s">
+        <v>223</v>
+      </c>
+      <c r="EO2" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="EB2" s="101" t="s">
+      <c r="EP2" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="EQ2" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="ER2" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="ES2" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="ET2" s="62" t="s">
+        <v>210</v>
+      </c>
+      <c r="EU2" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="EV2" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="EW2" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="EC2" s="101" t="s">
+      <c r="EX2" s="106" t="s">
+        <v>224</v>
+      </c>
+      <c r="EY2" s="106" t="s">
+        <v>218</v>
+      </c>
+      <c r="EZ2" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="FA2" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="FB2" s="62" t="s">
+        <v>221</v>
+      </c>
+      <c r="FC2" s="76" t="s">
+        <v>222</v>
+      </c>
+      <c r="FD2" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="FE2" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="ED2" s="62" t="s">
-        <v>208</v>
-      </c>
-      <c r="EE2" s="62" t="s">
-        <v>209</v>
-      </c>
-      <c r="EF2" s="62" t="s">
-        <v>210</v>
-      </c>
-      <c r="EG2" s="62" t="s">
-        <v>211</v>
-      </c>
-      <c r="EH2" s="104" t="s">
+      <c r="FF2" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="FG2" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="EI2" s="104" t="s">
+      <c r="FH2" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="EJ2" s="105" t="s">
-        <v>217</v>
-      </c>
-      <c r="EK2" s="105" t="s">
+      <c r="FI2" s="106" t="s">
+        <v>224</v>
+      </c>
+      <c r="FJ2" s="106" t="s">
         <v>218</v>
       </c>
-      <c r="EL2" s="105" t="s">
+      <c r="FK2" s="76" t="s">
         <v>219</v>
       </c>
-      <c r="EM2" s="105" t="s">
+      <c r="FL2" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="EN2" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="EO2" s="76" t="s">
-        <v>134</v>
-      </c>
-      <c r="EP2" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="EQ2" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="ER2" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="ES2" s="62" t="s">
-        <v>214</v>
-      </c>
-      <c r="ET2" s="62" t="s">
-        <v>208</v>
-      </c>
-      <c r="EU2" s="62" t="s">
-        <v>209</v>
-      </c>
-      <c r="EV2" s="62" t="s">
-        <v>210</v>
-      </c>
-      <c r="EW2" s="62" t="s">
-        <v>211</v>
-      </c>
-      <c r="EX2" s="106" t="s">
+      <c r="FM2" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="FN2" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="EY2" s="106" t="s">
-        <v>216</v>
-      </c>
-      <c r="EZ2" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="FA2" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="FB2" s="62" t="s">
-        <v>219</v>
-      </c>
-      <c r="FC2" s="76" t="s">
-        <v>220</v>
-      </c>
-      <c r="FD2" s="76" t="s">
-        <v>134</v>
-      </c>
-      <c r="FE2" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="FF2" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="FG2" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="FH2" s="62" t="s">
-        <v>214</v>
-      </c>
-      <c r="FI2" s="106" t="s">
-        <v>222</v>
-      </c>
-      <c r="FJ2" s="106" t="s">
-        <v>216</v>
-      </c>
-      <c r="FK2" s="76" t="s">
-        <v>217</v>
-      </c>
-      <c r="FL2" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="FM2" s="62" t="s">
-        <v>223</v>
-      </c>
-      <c r="FN2" s="4" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:170">
@@ -35538,7 +35720,7 @@
         <v>2022</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C3" s="77">
         <v>25609651543.29</v>
@@ -41134,7 +41316,7 @@
         <v>2022</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C15" s="77">
         <v>5341040998.68</v>
@@ -43866,7 +44048,7 @@
         <v>2022</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C26" s="77">
         <v>2436471672.19</v>
@@ -46572,7 +46754,7 @@
         <v>2022</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C37" s="77">
         <v>2690710152.71</v>
@@ -48945,8 +49127,8 @@
   <sheetPr/>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -48967,17 +49149,19 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C1" s="4"/>
+        <v>226</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="D1" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E1" s="63" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -48988,26 +49172,26 @@
     <row r="2" ht="101" spans="1:11">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="4"/>
       <c r="E2" s="63"/>
       <c r="F2" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K2" s="68" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -49413,10 +49597,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
   </mergeCells>
@@ -49451,25 +49636,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -49480,7 +49665,7 @@
         <v>41820</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D2" s="48">
         <v>34509447.38</v>
@@ -49527,22 +49712,22 @@
         <v>2017</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F5" s="55" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H5" s="56">
         <v>0.105</v>
@@ -49554,7 +49739,7 @@
         <v>42767</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D6" s="48">
         <v>40271000</v>
@@ -49563,10 +49748,10 @@
         <v>15090466.13</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H6" s="56">
         <v>0.105</v>
@@ -49590,15 +49775,15 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="55" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H8" s="56">
         <v>0.1436</v>
@@ -49608,15 +49793,15 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H9" s="56">
         <v>0.1436</v>
@@ -49628,7 +49813,7 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -49640,15 +49825,15 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="6" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H11" s="56">
         <v>0.1382</v>
@@ -49658,15 +49843,15 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="47" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H12" s="56">
         <v>0.1382</v>
@@ -49678,7 +49863,7 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -49690,15 +49875,15 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D14" s="49"/>
       <c r="E14" s="4"/>
       <c r="F14" s="6" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H14" s="56">
         <v>0.1382</v>
@@ -49708,15 +49893,15 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D15" s="49"/>
       <c r="E15" s="4"/>
       <c r="F15" s="9" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H15" s="56">
         <v>0.1382</v>
@@ -49728,7 +49913,7 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D16" s="49"/>
       <c r="E16" s="4"/>
@@ -49740,7 +49925,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="4"/>
@@ -49748,7 +49933,7 @@
         <v>0.27</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H17" s="56">
         <v>0.1382</v>
@@ -49758,7 +49943,7 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D18" s="50">
         <f>(6312.5+10605)*10000</f>
@@ -49766,10 +49951,10 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="9" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H18" s="56">
         <v>0.1382</v>
@@ -49781,7 +49966,7 @@
         <v>2022</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D19" s="50">
         <v>440181000</v>
@@ -49790,10 +49975,10 @@
         <v>97846575.6</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H19" s="58">
         <v>0.1382</v>
@@ -49805,7 +49990,7 @@
         <v>2022</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D20" s="52">
         <v>532808000</v>
@@ -49814,10 +49999,10 @@
         <v>97491384.51</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H20" s="56">
         <v>0.1475</v>
@@ -49865,60 +50050,60 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="5:15">
       <c r="E2" s="4" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -49969,37 +50154,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D1" s="38"/>
       <c r="E1" s="27" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="27"/>
       <c r="B2" s="37"/>
       <c r="C2" s="37" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" ht="409.5" spans="1:7">
       <c r="A3" s="27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3" s="37">
         <v>2022</v>
@@ -50007,13 +50192,13 @@
       <c r="C3" s="37"/>
       <c r="D3" s="39"/>
       <c r="E3" s="45" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" ht="409.5" spans="1:6">
@@ -50024,10 +50209,10 @@
       <c r="C4" s="37"/>
       <c r="D4" s="40"/>
       <c r="E4" s="45" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" ht="409.5" spans="1:6">
@@ -50038,10 +50223,10 @@
       <c r="C5" s="37"/>
       <c r="D5" s="39"/>
       <c r="E5" s="45" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" ht="409.5" spans="1:6">
@@ -50052,10 +50237,10 @@
       <c r="C6" s="37"/>
       <c r="D6" s="39"/>
       <c r="E6" s="45" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" ht="409.5" spans="1:6">
@@ -50066,10 +50251,10 @@
       <c r="C7" s="37"/>
       <c r="D7" s="39"/>
       <c r="E7" s="45" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" ht="409.5" spans="1:6">
@@ -50080,10 +50265,10 @@
       <c r="C8" s="37"/>
       <c r="D8" s="39"/>
       <c r="E8" s="45" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" ht="370" spans="1:6">
@@ -50094,10 +50279,10 @@
       <c r="C9" s="37"/>
       <c r="D9" s="39"/>
       <c r="E9" s="45" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" ht="387" spans="1:6">
@@ -50108,10 +50293,10 @@
       <c r="C10" s="37"/>
       <c r="D10" s="39"/>
       <c r="E10" s="45" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" ht="404" spans="1:6">
@@ -50122,10 +50307,10 @@
       <c r="C11" s="37"/>
       <c r="D11" s="39"/>
       <c r="E11" s="45" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" ht="409.5" spans="1:6">
@@ -50136,10 +50321,10 @@
       <c r="C12" s="37"/>
       <c r="D12" s="39"/>
       <c r="E12" s="45" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -50153,7 +50338,7 @@
     </row>
     <row r="14" customFormat="1" spans="1:6">
       <c r="A14" s="27" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B14" s="37">
         <v>2022</v>
@@ -50265,17 +50450,17 @@
     </row>
     <row r="25" ht="409.5" spans="1:6">
       <c r="A25" s="41" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B25" s="37">
         <v>2022</v>
       </c>
       <c r="C25" s="37"/>
       <c r="D25" s="40" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" ht="409.5" spans="1:6">
@@ -50285,10 +50470,10 @@
       </c>
       <c r="C26" s="37"/>
       <c r="D26" s="40" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" ht="409.5" spans="1:6">
@@ -50298,10 +50483,10 @@
       </c>
       <c r="C27" s="37"/>
       <c r="D27" s="40" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" ht="409.5" spans="1:6">
@@ -50311,10 +50496,10 @@
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="40" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" ht="409.5" spans="1:6">
@@ -50324,10 +50509,10 @@
       </c>
       <c r="C29" s="37"/>
       <c r="D29" s="40" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" ht="409.5" spans="1:6">
@@ -50336,13 +50521,13 @@
         <v>2017</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" ht="409.5" spans="1:6">
@@ -50351,13 +50536,13 @@
         <v>2016</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -50398,17 +50583,17 @@
     </row>
     <row r="36" ht="409.5" spans="1:6">
       <c r="A36" s="27" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B36" s="37">
         <v>2022</v>
       </c>
       <c r="C36" s="37"/>
       <c r="D36" s="40" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37" ht="409.5" spans="1:6">
@@ -50418,10 +50603,10 @@
       </c>
       <c r="C37" s="37"/>
       <c r="D37" s="40" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" ht="409.5" spans="1:6">
@@ -50432,7 +50617,7 @@
       <c r="C38" s="37"/>
       <c r="D38" s="39"/>
       <c r="F38" s="20" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" ht="409.5" spans="1:6">
@@ -50444,7 +50629,7 @@
       <c r="D39" s="39"/>
       <c r="E39" s="45"/>
       <c r="F39" s="20" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -50512,7 +50697,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="41" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B47" s="37">
         <v>2022</v>
@@ -50613,7 +50798,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="27" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B58" s="37">
         <v>2022</v>
@@ -50714,7 +50899,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B69" s="37">
         <v>2022</v>
@@ -50815,7 +51000,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="27" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B80" s="37">
         <v>2022</v>
@@ -50916,7 +51101,7 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="27" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B91" s="37">
         <v>2022</v>
@@ -51062,47 +51247,47 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" ht="101" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="G2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="7:7">
       <c r="G3" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -51129,7 +51314,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="31" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
@@ -51146,16 +51331,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -51167,10 +51352,10 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -51184,7 +51369,7 @@
         <v>44645</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -51198,7 +51383,7 @@
         <v>44286</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -51212,7 +51397,7 @@
         <v>43916</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -51226,7 +51411,7 @@
         <v>43550</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" ht="17" spans="1:6">
@@ -51237,10 +51422,10 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -51254,7 +51439,7 @@
         <v>42817</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -51268,7 +51453,7 @@
         <v>42439</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -51282,7 +51467,7 @@
         <v>42073</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -51296,7 +51481,7 @@
         <v>41723</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -51334,22 +51519,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -51357,10 +51542,10 @@
         <v>2022</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -51370,10 +51555,10 @@
     <row r="3" ht="17" spans="1:7">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -51383,10 +51568,10 @@
     <row r="4" spans="1:7">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -51396,10 +51581,10 @@
     <row r="5" spans="1:7">
       <c r="A5" s="4"/>
       <c r="B5" s="13" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -51409,10 +51594,10 @@
     <row r="6" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="6" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -51422,10 +51607,10 @@
     <row r="7" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>373</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>370</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -51435,10 +51620,10 @@
     <row r="8" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -51486,10 +51671,10 @@
         <v>2021</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -51499,10 +51684,10 @@
     <row r="14" ht="17" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -51512,10 +51697,10 @@
     <row r="15" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -51525,10 +51710,10 @@
     <row r="16" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="27" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -51538,10 +51723,10 @@
     <row r="17" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="27" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -51598,10 +51783,10 @@
         <v>2020</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -51611,10 +51796,10 @@
     <row r="24" ht="17" spans="1:7">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -51624,10 +51809,10 @@
     <row r="25" spans="1:7">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -51637,10 +51822,10 @@
     <row r="26" spans="1:7">
       <c r="A26" s="4"/>
       <c r="B26" s="27" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -51650,10 +51835,10 @@
     <row r="27" spans="1:7">
       <c r="A27" s="4"/>
       <c r="B27" s="27" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -51701,10 +51886,10 @@
         <v>2019</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -51714,10 +51899,10 @@
     <row r="33" ht="17" spans="1:7">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -51727,10 +51912,10 @@
     <row r="34" spans="1:7">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -51740,10 +51925,10 @@
     <row r="35" spans="1:7">
       <c r="A35" s="4"/>
       <c r="B35" s="27" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -51753,10 +51938,10 @@
     <row r="36" spans="1:7">
       <c r="A36" s="4"/>
       <c r="B36" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>370</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -51766,10 +51951,10 @@
     <row r="37" spans="1:7">
       <c r="A37" s="4"/>
       <c r="B37" s="27" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -51817,10 +52002,10 @@
         <v>2018</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -51830,10 +52015,10 @@
     <row r="43" ht="17" spans="1:7">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -51843,10 +52028,10 @@
     <row r="44" spans="1:7">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -51856,10 +52041,10 @@
     <row r="45" spans="1:7">
       <c r="A45" s="4"/>
       <c r="B45" s="27" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -51869,10 +52054,10 @@
     <row r="46" spans="1:7">
       <c r="A46" s="4"/>
       <c r="B46" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>370</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -51882,10 +52067,10 @@
     <row r="47" spans="1:7">
       <c r="A47" s="4"/>
       <c r="B47" s="27" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -51933,10 +52118,10 @@
         <v>2017</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -51946,10 +52131,10 @@
     <row r="53" ht="17" spans="1:7">
       <c r="A53" s="18"/>
       <c r="B53" s="27" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -51959,10 +52144,10 @@
     <row r="54" spans="1:7">
       <c r="A54" s="18"/>
       <c r="B54" s="27" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -51972,10 +52157,10 @@
     <row r="55" spans="1:7">
       <c r="A55" s="18"/>
       <c r="B55" s="27" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -51985,10 +52170,10 @@
     <row r="56" spans="1:7">
       <c r="A56" s="18"/>
       <c r="B56" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>370</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -51998,10 +52183,10 @@
     <row r="57" spans="1:7">
       <c r="A57" s="18"/>
       <c r="B57" s="4" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -52013,10 +52198,10 @@
         <v>2016</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -52026,10 +52211,10 @@
     <row r="59" ht="17" spans="1:7">
       <c r="A59" s="18"/>
       <c r="B59" s="4" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -52039,10 +52224,10 @@
     <row r="60" spans="1:7">
       <c r="A60" s="18"/>
       <c r="B60" s="6" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -52052,10 +52237,10 @@
     <row r="61" spans="1:7">
       <c r="A61" s="18"/>
       <c r="B61" s="4" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -52065,10 +52250,10 @@
     <row r="62" spans="1:7">
       <c r="A62" s="18"/>
       <c r="B62" s="27" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -52078,10 +52263,10 @@
     <row r="63" spans="1:7">
       <c r="A63" s="18"/>
       <c r="B63" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>370</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -52091,10 +52276,10 @@
     <row r="64" ht="17" spans="1:7">
       <c r="A64" s="18"/>
       <c r="B64" s="6" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -52104,10 +52289,10 @@
     <row r="65" ht="17" spans="1:7">
       <c r="A65" s="18"/>
       <c r="B65" s="6" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -52117,10 +52302,10 @@
     <row r="66" ht="17" spans="1:7">
       <c r="A66" s="18"/>
       <c r="B66" s="6" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -52130,10 +52315,10 @@
     <row r="67" ht="17" spans="1:7">
       <c r="A67" s="18"/>
       <c r="B67" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C67" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -52143,10 +52328,10 @@
     <row r="68" ht="17" spans="1:7">
       <c r="A68" s="18"/>
       <c r="B68" s="6" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -52156,10 +52341,10 @@
     <row r="69" spans="1:7">
       <c r="A69" s="19"/>
       <c r="B69" s="4" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -52171,10 +52356,10 @@
         <v>2015</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -52184,10 +52369,10 @@
     <row r="71" ht="17" spans="1:7">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -52197,10 +52382,10 @@
     <row r="72" spans="1:7">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -52210,10 +52395,10 @@
     <row r="73" spans="1:7">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -52223,10 +52408,10 @@
     <row r="74" spans="1:7">
       <c r="A74" s="4"/>
       <c r="B74" s="13" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -52236,10 +52421,10 @@
     <row r="75" ht="17" spans="1:7">
       <c r="A75" s="4"/>
       <c r="B75" s="11" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -52249,10 +52434,10 @@
     <row r="76" ht="17" spans="1:7">
       <c r="A76" s="4"/>
       <c r="B76" s="11" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -52262,10 +52447,10 @@
     <row r="77" ht="17" spans="1:7">
       <c r="A77" s="4"/>
       <c r="B77" s="11" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -52275,10 +52460,10 @@
     <row r="78" ht="17" spans="1:7">
       <c r="A78" s="4"/>
       <c r="B78" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C78" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -52288,10 +52473,10 @@
     <row r="79" ht="17" spans="1:7">
       <c r="A79" s="4"/>
       <c r="B79" s="13" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -52301,10 +52486,10 @@
     <row r="80" spans="1:7">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>378</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -52316,10 +52501,10 @@
         <v>2014</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -52329,10 +52514,10 @@
     <row r="82" ht="17" spans="1:7">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -52342,10 +52527,10 @@
     <row r="83" spans="1:7">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -52355,10 +52540,10 @@
     <row r="84" spans="1:7">
       <c r="A84" s="4"/>
       <c r="B84" s="4" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -52368,10 +52553,10 @@
     <row r="85" ht="17" spans="1:7">
       <c r="A85" s="4"/>
       <c r="B85" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -52381,10 +52566,10 @@
     <row r="86" spans="1:7">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -52394,10 +52579,10 @@
     <row r="87" spans="1:7">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>378</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="D87" s="30">
         <v>875772</v>
@@ -52411,10 +52596,10 @@
     <row r="88" spans="1:7">
       <c r="A88" s="4"/>
       <c r="B88" s="6" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -52424,10 +52609,10 @@
     <row r="89" spans="1:7">
       <c r="A89" s="4"/>
       <c r="B89" s="6" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -52437,10 +52622,10 @@
     <row r="90" spans="1:7">
       <c r="A90" s="4"/>
       <c r="B90" s="6" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -52452,10 +52637,10 @@
         <v>2013</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
@@ -52465,10 +52650,10 @@
     <row r="92" ht="17" spans="1:7">
       <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
@@ -52478,10 +52663,10 @@
     <row r="93" spans="1:7">
       <c r="A93" s="4"/>
       <c r="B93" s="4" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -52491,10 +52676,10 @@
     <row r="94" spans="1:7">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
@@ -52504,10 +52689,10 @@
     <row r="95" ht="17" spans="1:7">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
@@ -52517,10 +52702,10 @@
     <row r="96" spans="1:7">
       <c r="A96" s="4"/>
       <c r="B96" s="4" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
@@ -52530,10 +52715,10 @@
     <row r="97" spans="1:7">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>378</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="D97" s="8">
         <v>462164</v>
@@ -52547,10 +52732,10 @@
     <row r="98" spans="1:7">
       <c r="A98" s="4"/>
       <c r="B98" s="4" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D98" s="8">
         <v>2701775</v>
@@ -52564,10 +52749,10 @@
     <row r="99" spans="1:7">
       <c r="A99" s="4"/>
       <c r="B99" s="4" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D99" s="8">
         <v>1201627</v>
@@ -52581,10 +52766,10 @@
     <row r="100" spans="1:7">
       <c r="A100" s="4"/>
       <c r="B100" s="4" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D100" s="8">
         <v>2630565</v>

--- a/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/食品饮料行业/食品_调味品_肉制品_休闲食品.xlsx
+++ b/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/食品饮料行业/食品_调味品_肉制品_休闲食品.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27240" windowHeight="13360"/>
+    <workbookView windowWidth="27240" windowHeight="13360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="资产表分析" sheetId="1" r:id="rId1"/>
@@ -2587,10 +2587,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -2642,23 +2642,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2672,38 +2665,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2727,7 +2689,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2735,6 +2705,60 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2749,31 +2773,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2908,7 +2908,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2920,7 +2926,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2932,37 +2986,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2974,19 +2998,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2998,31 +3022,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3040,49 +3064,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3207,22 +3207,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3238,30 +3223,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3291,150 +3252,189 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="50" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -4300,8 +4300,8 @@
   <sheetPr/>
   <dimension ref="A1:DF182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="DB3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="DC3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -34922,11 +34922,11 @@
   <dimension ref="A1:FO47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="DP3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -41328,7 +41328,10 @@
       <c r="E15" s="77">
         <v>4707096929.93</v>
       </c>
-      <c r="F15" s="77"/>
+      <c r="F15" s="62">
+        <f>(E15-E16)/E16</f>
+        <v>0.094328356754189</v>
+      </c>
       <c r="G15" s="77">
         <v>3647876549.07</v>
       </c>
@@ -41583,7 +41586,10 @@
       <c r="E16" s="77">
         <v>4301356992.97</v>
       </c>
-      <c r="F16" s="77"/>
+      <c r="F16" s="62">
+        <f t="shared" ref="F16:F47" si="102">(E16-E17)/E17</f>
+        <v>0.0577606487299761</v>
+      </c>
       <c r="G16" s="77">
         <v>3331842758.91</v>
       </c>
@@ -41832,7 +41838,10 @@
       <c r="E17" s="77">
         <v>4066474772.09</v>
       </c>
-      <c r="F17" s="77"/>
+      <c r="F17" s="62">
+        <f t="shared" si="102"/>
+        <v>0.0604969481231956</v>
+      </c>
       <c r="G17" s="77">
         <v>3163314751.7</v>
       </c>
@@ -42081,7 +42090,10 @@
       <c r="E18" s="77">
         <v>3834499268.75</v>
       </c>
-      <c r="F18" s="77"/>
+      <c r="F18" s="62">
+        <f t="shared" si="102"/>
+        <v>0.098899376876465</v>
+      </c>
       <c r="G18" s="77">
         <v>2826059472.05</v>
       </c>
@@ -42330,7 +42342,10 @@
       <c r="E19" s="77">
         <v>3489399802.6</v>
       </c>
-      <c r="F19" s="77"/>
+      <c r="F19" s="62">
+        <f t="shared" si="102"/>
+        <v>0.126433621711242</v>
+      </c>
       <c r="G19" s="77">
         <v>2536752982.51</v>
       </c>
@@ -42579,7 +42594,10 @@
       <c r="E20" s="77">
         <v>3097741167.65</v>
       </c>
-      <c r="F20" s="77"/>
+      <c r="F20" s="62">
+        <f t="shared" si="102"/>
+        <v>0.132220178094537</v>
+      </c>
       <c r="G20" s="77">
         <v>2191888497.77</v>
       </c>
@@ -42826,7 +42844,10 @@
       <c r="E21" s="77">
         <v>2735988306.5</v>
       </c>
-      <c r="F21" s="77"/>
+      <c r="F21" s="62">
+        <f t="shared" si="102"/>
+        <v>0.100242248591166</v>
+      </c>
       <c r="G21" s="77">
         <v>1999375701.46</v>
       </c>
@@ -43073,7 +43094,10 @@
       <c r="E22" s="77">
         <v>2486714457.66</v>
       </c>
-      <c r="F22" s="77"/>
+      <c r="F22" s="62">
+        <f t="shared" si="102"/>
+        <v>0.0674010756845321</v>
+      </c>
       <c r="G22" s="77">
         <v>1791235863.03</v>
       </c>
@@ -43320,7 +43344,10 @@
       <c r="E23" s="77">
         <v>2329690792.25</v>
       </c>
-      <c r="F23" s="77"/>
+      <c r="F23" s="62">
+        <f t="shared" si="102"/>
+        <v>0.122246156998732</v>
+      </c>
       <c r="G23" s="77">
         <v>1731095659.02</v>
       </c>
@@ -43567,7 +43594,10 @@
       <c r="E24" s="77">
         <v>2075917816.89</v>
       </c>
-      <c r="F24" s="77"/>
+      <c r="F24" s="62">
+        <f t="shared" si="102"/>
+        <v>0.253116698760092</v>
+      </c>
       <c r="G24" s="77">
         <v>1592757028.23</v>
       </c>
@@ -43811,7 +43841,10 @@
       <c r="E25" s="77">
         <v>1656603745.64</v>
       </c>
-      <c r="F25" s="77"/>
+      <c r="F25" s="62">
+        <f t="shared" si="102"/>
+        <v>-0.18266620779908</v>
+      </c>
       <c r="G25" s="77">
         <v>1254360858.52</v>
       </c>
@@ -44060,7 +44093,10 @@
       <c r="E26" s="77">
         <v>2026838681.39</v>
       </c>
-      <c r="F26" s="77"/>
+      <c r="F26" s="62">
+        <f t="shared" si="102"/>
+        <v>0.213788404573882</v>
+      </c>
       <c r="G26" s="76">
         <v>1545770407.17</v>
       </c>
@@ -44108,27 +44144,27 @@
       <c r="AE26" s="62"/>
       <c r="AF26" s="62"/>
       <c r="AG26" s="62">
-        <f t="shared" ref="AG26:AG31" si="102">G26/C26</f>
+        <f t="shared" ref="AG26:AG31" si="103">G26/C26</f>
         <v>0.634429870379161</v>
       </c>
       <c r="AH26" s="62">
-        <f t="shared" ref="AH26:AH35" si="103">G26/$C26</f>
+        <f t="shared" ref="AH26:AH35" si="104">G26/$C26</f>
         <v>0.634429870379161</v>
       </c>
       <c r="AI26" s="62">
-        <f t="shared" ref="AI26:AI35" si="104">H26/$C26</f>
+        <f t="shared" ref="AI26:AI35" si="105">H26/$C26</f>
         <v>0.00859267183319314</v>
       </c>
       <c r="AJ26" s="62">
-        <f t="shared" ref="AJ26:AJ35" si="105">I26/$C26</f>
+        <f t="shared" ref="AJ26:AJ35" si="106">I26/$C26</f>
         <v>0.135832385977436</v>
       </c>
       <c r="AK26" s="62">
-        <f t="shared" ref="AK26:AK35" si="106">J26/$C26</f>
+        <f t="shared" ref="AK26:AK35" si="107">J26/$C26</f>
         <v>0.0299468136949101</v>
       </c>
       <c r="AL26" s="62">
-        <f t="shared" ref="AL26:AL35" si="107">K26/$C26</f>
+        <f t="shared" ref="AL26:AL35" si="108">K26/$C26</f>
         <v>0.0264829041381805</v>
       </c>
       <c r="AM26" s="62">
@@ -44229,11 +44265,11 @@
       <c r="DU26" s="62"/>
       <c r="DV26" s="62"/>
       <c r="DW26" s="62">
-        <f t="shared" ref="DW26:DW41" si="108">O26/N26</f>
+        <f t="shared" ref="DW26:DW41" si="109">O26/N26</f>
         <v>0.143673323293261</v>
       </c>
       <c r="DX26" s="62">
-        <f t="shared" ref="DX26:DX41" si="109">O26/M26</f>
+        <f t="shared" ref="DX26:DX41" si="110">O26/M26</f>
         <v>0.14414462677779</v>
       </c>
       <c r="DY26" s="76">
@@ -44247,7 +44283,7 @@
         <v>950994337.4</v>
       </c>
       <c r="EB26" s="62">
-        <f t="shared" ref="EB26:EB31" si="110">EA26/G26</f>
+        <f t="shared" ref="EB26:EB31" si="111">EA26/G26</f>
         <v>0.615223537071772</v>
       </c>
       <c r="EC26" s="62">
@@ -44265,7 +44301,7 @@
         <v>345013</v>
       </c>
       <c r="EJ26" s="48">
-        <f t="shared" ref="EJ26:EJ31" si="111">DY26/EH26</f>
+        <f t="shared" ref="EJ26:EJ31" si="112">DY26/EH26</f>
         <v>4503.08332904792</v>
       </c>
       <c r="EK26" s="48"/>
@@ -44316,13 +44352,16 @@
         <v>1925286294.09</v>
       </c>
       <c r="D27" s="62">
-        <f t="shared" ref="D27:D34" si="112">(C27-C28)/C28</f>
+        <f t="shared" ref="D27:D34" si="113">(C27-C28)/C28</f>
         <v>0.137019947464054</v>
       </c>
       <c r="E27" s="77">
         <v>1669845150.73</v>
       </c>
-      <c r="F27" s="77"/>
+      <c r="F27" s="62">
+        <f t="shared" si="102"/>
+        <v>0.230655286224155</v>
+      </c>
       <c r="G27" s="76">
         <v>1147871732</v>
       </c>
@@ -44370,27 +44409,27 @@
       <c r="AE27" s="62"/>
       <c r="AF27" s="62"/>
       <c r="AG27" s="62">
-        <f t="shared" si="102"/>
-        <v>0.596208333027452</v>
-      </c>
-      <c r="AH27" s="62">
         <f t="shared" si="103"/>
         <v>0.596208333027452</v>
       </c>
+      <c r="AH27" s="62">
+        <f t="shared" si="104"/>
+        <v>0.596208333027452</v>
+      </c>
       <c r="AI27" s="62">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0.00848727141524862</v>
       </c>
       <c r="AJ27" s="62">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0.201501914842939</v>
       </c>
       <c r="AK27" s="62">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0.0337604580054012</v>
       </c>
       <c r="AL27" s="62">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0.0287696188146295</v>
       </c>
       <c r="AM27" s="62">
@@ -44491,11 +44530,11 @@
       <c r="DU27" s="62"/>
       <c r="DV27" s="62"/>
       <c r="DW27" s="62">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0.152505339139993</v>
       </c>
       <c r="DX27" s="62">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0.147562615205021</v>
       </c>
       <c r="DY27" s="76">
@@ -44509,7 +44548,7 @@
         <v>662778435.01</v>
       </c>
       <c r="EB27" s="62">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0.577397645166507</v>
       </c>
       <c r="EC27" s="62">
@@ -44527,7 +44566,7 @@
         <v>275340</v>
       </c>
       <c r="EJ27" s="48">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>4485.00885107319</v>
       </c>
       <c r="EK27" s="48"/>
@@ -44578,13 +44617,16 @@
         <v>1693273982.03</v>
       </c>
       <c r="D28" s="62">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.249512951393242</v>
       </c>
       <c r="E28" s="77">
         <v>1356874804.36</v>
       </c>
-      <c r="F28" s="77"/>
+      <c r="F28" s="62">
+        <f t="shared" si="102"/>
+        <v>0.193728550941432</v>
+      </c>
       <c r="G28" s="76">
         <v>950816655.19</v>
       </c>
@@ -44632,27 +44674,27 @@
       <c r="AE28" s="62"/>
       <c r="AF28" s="62"/>
       <c r="AG28" s="62">
-        <f t="shared" si="102"/>
-        <v>0.56152558019589</v>
-      </c>
-      <c r="AH28" s="62">
         <f t="shared" si="103"/>
         <v>0.56152558019589</v>
       </c>
+      <c r="AH28" s="62">
+        <f t="shared" si="104"/>
+        <v>0.56152558019589</v>
+      </c>
       <c r="AI28" s="62">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0.00932542750173801</v>
       </c>
       <c r="AJ28" s="62">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0.169405817312628</v>
       </c>
       <c r="AK28" s="62">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0.0362680332077009</v>
       </c>
       <c r="AL28" s="62">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0.0267065691848555</v>
       </c>
       <c r="AM28" s="62">
@@ -44753,11 +44795,11 @@
       <c r="DU28" s="62"/>
       <c r="DV28" s="62"/>
       <c r="DW28" s="62">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0.199046360875016</v>
       </c>
       <c r="DX28" s="62">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0.195269888168237</v>
       </c>
       <c r="DY28" s="76">
@@ -44771,7 +44813,7 @@
         <v>544506620.14</v>
       </c>
       <c r="EB28" s="62">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0.572672572748731</v>
       </c>
       <c r="EC28" s="62">
@@ -44789,7 +44831,7 @@
         <v>203078.04</v>
       </c>
       <c r="EJ28" s="48">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>5205.9198538527</v>
       </c>
       <c r="EK28" s="48"/>
@@ -44840,13 +44882,16 @@
         <v>1355147203.67</v>
       </c>
       <c r="D29" s="62">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.271906286261509</v>
       </c>
       <c r="E29" s="77">
         <v>1136669474.22</v>
       </c>
-      <c r="F29" s="77"/>
+      <c r="F29" s="62">
+        <f t="shared" si="102"/>
+        <v>0.289127693974249</v>
+      </c>
       <c r="G29" s="76">
         <v>728988143.54</v>
       </c>
@@ -44894,27 +44939,27 @@
       <c r="AE29" s="62"/>
       <c r="AF29" s="62"/>
       <c r="AG29" s="62">
-        <f t="shared" si="102"/>
-        <v>0.537940189498056</v>
-      </c>
-      <c r="AH29" s="78">
         <f t="shared" si="103"/>
         <v>0.537940189498056</v>
       </c>
+      <c r="AH29" s="78">
+        <f t="shared" si="104"/>
+        <v>0.537940189498056</v>
+      </c>
       <c r="AI29" s="62">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0.00962865059578978</v>
       </c>
       <c r="AJ29" s="62">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0.227844387394824</v>
       </c>
       <c r="AK29" s="62">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0.0397764952575043</v>
       </c>
       <c r="AL29" s="62">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0.0291352915189387</v>
       </c>
       <c r="AM29" s="62">
@@ -45015,11 +45060,11 @@
       <c r="DU29" s="62"/>
       <c r="DV29" s="62"/>
       <c r="DW29" s="62">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0.145473457854145</v>
       </c>
       <c r="DX29" s="62">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0.145579148416739</v>
       </c>
       <c r="DY29" s="48">
@@ -45033,7 +45078,7 @@
         <v>414874034.26</v>
       </c>
       <c r="EB29" s="62">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0.569109440169154</v>
       </c>
       <c r="EC29" s="62">
@@ -45051,7 +45096,7 @@
         <v>158306.88</v>
       </c>
       <c r="EJ29" s="48">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>5500.1409935233</v>
       </c>
       <c r="EK29" s="48"/>
@@ -45102,13 +45147,16 @@
         <v>1065445794.48</v>
       </c>
       <c r="D30" s="62">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.123689887095143</v>
       </c>
       <c r="E30" s="77">
         <v>881735362.24</v>
       </c>
-      <c r="F30" s="77"/>
+      <c r="F30" s="62">
+        <f t="shared" si="102"/>
+        <v>0.113017505784953</v>
+      </c>
       <c r="G30" s="76">
         <v>578058411.02</v>
       </c>
@@ -45156,27 +45204,27 @@
       <c r="AE30" s="62"/>
       <c r="AF30" s="62"/>
       <c r="AG30" s="62">
-        <f t="shared" si="102"/>
-        <v>0.542550746377601</v>
-      </c>
-      <c r="AH30" s="62">
         <f t="shared" si="103"/>
         <v>0.542550746377601</v>
       </c>
+      <c r="AH30" s="62">
+        <f t="shared" si="104"/>
+        <v>0.542550746377601</v>
+      </c>
       <c r="AI30" s="62">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0.0113649681971008</v>
       </c>
       <c r="AJ30" s="62">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0.203038393469449</v>
       </c>
       <c r="AK30" s="62">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0.0490045775022111</v>
       </c>
       <c r="AL30" s="62">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0.0191096422225187</v>
       </c>
       <c r="AM30" s="62">
@@ -45277,11 +45325,11 @@
       <c r="DU30" s="62"/>
       <c r="DV30" s="62"/>
       <c r="DW30" s="62">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0.158267725543734</v>
       </c>
       <c r="DX30" s="62">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0.158256101941287</v>
       </c>
       <c r="DY30" s="76">
@@ -45295,7 +45343,7 @@
         <v>303308325.77</v>
       </c>
       <c r="EB30" s="62">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0.524701864011985</v>
       </c>
       <c r="EC30" s="62">
@@ -45313,7 +45361,7 @@
         <v>114261.34</v>
       </c>
       <c r="EJ30" s="48">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>5482.51228813876</v>
       </c>
       <c r="EK30" s="48"/>
@@ -45364,13 +45412,16 @@
         <v>948167111.51</v>
       </c>
       <c r="D31" s="62">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.230010498376745</v>
       </c>
       <c r="E31" s="77">
         <v>792202600.28</v>
       </c>
-      <c r="F31" s="77"/>
+      <c r="F31" s="62">
+        <f t="shared" si="102"/>
+        <v>0.195241948352139</v>
+      </c>
       <c r="G31" s="76">
         <v>537261639.44</v>
       </c>
@@ -45418,27 +45469,27 @@
       <c r="AE31" s="62"/>
       <c r="AF31" s="62"/>
       <c r="AG31" s="62">
-        <f t="shared" si="102"/>
-        <v>0.566631802472442</v>
-      </c>
-      <c r="AH31" s="62">
         <f t="shared" si="103"/>
         <v>0.566631802472442</v>
       </c>
+      <c r="AH31" s="62">
+        <f t="shared" si="104"/>
+        <v>0.566631802472442</v>
+      </c>
       <c r="AI31" s="62">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0.0115423259013605</v>
       </c>
       <c r="AJ31" s="62">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0.185237872910705</v>
       </c>
       <c r="AK31" s="62">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0.0463903580350415</v>
       </c>
       <c r="AL31" s="62">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0.0236378733747755</v>
       </c>
       <c r="AM31" s="62">
@@ -45539,11 +45590,11 @@
       <c r="DU31" s="62"/>
       <c r="DV31" s="62"/>
       <c r="DW31" s="62">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0.156644117395961</v>
       </c>
       <c r="DX31" s="62">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0.158143976707704</v>
       </c>
       <c r="DY31" s="76">
@@ -45557,7 +45608,7 @@
         <v>258682460.69</v>
       </c>
       <c r="EB31" s="62">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0.481483213578454</v>
       </c>
       <c r="EC31" s="62">
@@ -45575,7 +45626,7 @@
         <v>96349.95</v>
       </c>
       <c r="EJ31" s="48">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>5324.16957740576</v>
       </c>
       <c r="EK31" s="48"/>
@@ -45626,13 +45677,16 @@
         <v>770860990.83</v>
       </c>
       <c r="D32" s="62">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.236174394035559</v>
       </c>
       <c r="E32" s="77">
         <v>662796851.61</v>
       </c>
-      <c r="F32" s="77"/>
+      <c r="F32" s="62">
+        <f t="shared" si="102"/>
+        <v>0.215809102489819</v>
+      </c>
       <c r="G32" s="77">
         <v>455044993.65</v>
       </c>
@@ -45682,23 +45736,23 @@
         <v>0.859813714138466</v>
       </c>
       <c r="AH32" s="62">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0.590307460181692</v>
       </c>
       <c r="AI32" s="62">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0.0128945693558802</v>
       </c>
       <c r="AJ32" s="62">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0.201831954101711</v>
       </c>
       <c r="AK32" s="62">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0.0540010545548285</v>
       </c>
       <c r="AL32" s="62">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AM32" s="62">
@@ -45799,11 +45853,11 @@
       <c r="DU32" s="62"/>
       <c r="DV32" s="62"/>
       <c r="DW32" s="62">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0.179414785402955</v>
       </c>
       <c r="DX32" s="62">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0.199294962593459</v>
       </c>
       <c r="DY32" s="76"/>
@@ -45845,7 +45899,7 @@
       <c r="FC32" s="76"/>
       <c r="FD32" s="76"/>
       <c r="FE32" s="62">
-        <f t="shared" ref="FE32:FE47" si="113">FD32/C32</f>
+        <f t="shared" ref="FE32:FE47" si="114">FD32/C32</f>
         <v>0</v>
       </c>
       <c r="FF32" s="109"/>
@@ -45867,13 +45921,16 @@
         <v>623585955.63</v>
       </c>
       <c r="D33" s="62">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>-0.0417807283033406</v>
       </c>
       <c r="E33" s="77">
         <v>545148782.2</v>
       </c>
-      <c r="F33" s="77"/>
+      <c r="F33" s="62">
+        <f t="shared" si="102"/>
+        <v>-0.0705766881878313</v>
+      </c>
       <c r="G33" s="77">
         <v>391673640.37</v>
       </c>
@@ -45923,23 +45980,23 @@
         <v>0.874215939724371</v>
       </c>
       <c r="AH33" s="62">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0.628098880088307</v>
       </c>
       <c r="AI33" s="62">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0.0064096257844068</v>
       </c>
       <c r="AJ33" s="62">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0.166512743756548</v>
       </c>
       <c r="AK33" s="62">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0.0611733068161563</v>
       </c>
       <c r="AL33" s="62">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AM33" s="62">
@@ -46040,11 +46097,11 @@
       <c r="DU33" s="62"/>
       <c r="DV33" s="62"/>
       <c r="DW33" s="62">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0.177457209763677</v>
       </c>
       <c r="DX33" s="62">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0.182994500851176</v>
       </c>
       <c r="DY33" s="76"/>
@@ -46086,7 +46143,7 @@
       <c r="FC33" s="76"/>
       <c r="FD33" s="76"/>
       <c r="FE33" s="62">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="FF33" s="109"/>
@@ -46108,13 +46165,16 @@
         <v>650775844.37</v>
       </c>
       <c r="D34" s="62">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.0622324251897966</v>
       </c>
       <c r="E34" s="77">
         <v>586545199.88</v>
       </c>
-      <c r="F34" s="77"/>
+      <c r="F34" s="62">
+        <f t="shared" si="102"/>
+        <v>0.0993966377941596</v>
+      </c>
       <c r="G34" s="77">
         <v>439190435.52</v>
       </c>
@@ -46164,23 +46224,23 @@
         <v>0.901301431136892</v>
       </c>
       <c r="AH34" s="62">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0.674872061278134</v>
       </c>
       <c r="AI34" s="62">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0.00508782515307606</v>
       </c>
       <c r="AJ34" s="62">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0.151360841866153</v>
       </c>
       <c r="AK34" s="62">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0.0596788997870652</v>
       </c>
       <c r="AL34" s="62">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AM34" s="62">
@@ -46321,7 +46381,7 @@
       <c r="FC34" s="76"/>
       <c r="FD34" s="76"/>
       <c r="FE34" s="62">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="FF34" s="109"/>
@@ -46346,7 +46406,10 @@
       <c r="E35" s="77">
         <v>533515548.18</v>
       </c>
-      <c r="F35" s="77"/>
+      <c r="F35" s="62" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="G35" s="77">
         <v>415659252.94</v>
       </c>
@@ -46396,23 +46459,23 @@
         <v>0.87083366649592</v>
       </c>
       <c r="AH35" s="62">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0.678462085098543</v>
       </c>
       <c r="AI35" s="62">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0.00717281205569992</v>
       </c>
       <c r="AJ35" s="62">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0.124688493273829</v>
       </c>
       <c r="AK35" s="62">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0.0533291480133528</v>
       </c>
       <c r="AL35" s="62">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AM35" s="62">
@@ -46553,7 +46616,7 @@
       <c r="FC35" s="76"/>
       <c r="FD35" s="76"/>
       <c r="FE35" s="62">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="FF35" s="109"/>
@@ -46574,7 +46637,10 @@
       <c r="C36" s="77"/>
       <c r="D36" s="62"/>
       <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
+      <c r="F36" s="62">
+        <f t="shared" si="102"/>
+        <v>-1</v>
+      </c>
       <c r="G36" s="77"/>
       <c r="H36" s="77"/>
       <c r="I36" s="4"/>
@@ -46736,7 +46802,7 @@
       <c r="FC36" s="76"/>
       <c r="FD36" s="76"/>
       <c r="FE36" s="62" t="e">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FF36" s="109"/>
@@ -46760,13 +46826,16 @@
         <v>2690710152.71</v>
       </c>
       <c r="D37" s="62">
-        <f t="shared" ref="D37:D42" si="114">(C37-C38)/C38</f>
+        <f t="shared" ref="D37:D42" si="115">(C37-C38)/C38</f>
         <v>0.328394500954267</v>
       </c>
       <c r="E37" s="77">
         <v>2344058242.16</v>
       </c>
-      <c r="F37" s="77"/>
+      <c r="F37" s="62">
+        <f t="shared" si="102"/>
+        <v>0.243813877850384</v>
+      </c>
       <c r="G37" s="77">
         <v>1769938971.73</v>
       </c>
@@ -46935,11 +47004,11 @@
       <c r="DU37" s="62"/>
       <c r="DV37" s="62"/>
       <c r="DW37" s="62">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0.156483587322841</v>
       </c>
       <c r="DX37" s="62">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0.155704618726787</v>
       </c>
       <c r="DY37" s="76"/>
@@ -46981,7 +47050,7 @@
       <c r="FC37" s="76"/>
       <c r="FD37" s="76"/>
       <c r="FE37" s="62">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="FF37" s="109"/>
@@ -47003,13 +47072,16 @@
         <v>2025535449.58</v>
       </c>
       <c r="D38" s="62">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>-0.143412163367192</v>
       </c>
       <c r="E38" s="77">
         <v>1884573153.51</v>
       </c>
-      <c r="F38" s="77"/>
+      <c r="F38" s="62">
+        <f t="shared" si="102"/>
+        <v>-0.0550603043821591</v>
+      </c>
       <c r="G38" s="77">
         <v>1372877842.63</v>
       </c>
@@ -47178,11 +47250,11 @@
       <c r="DU38" s="62"/>
       <c r="DV38" s="62"/>
       <c r="DW38" s="62">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0.146868086524997</v>
       </c>
       <c r="DX38" s="62">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0.167905701531904</v>
       </c>
       <c r="DY38" s="76"/>
@@ -47224,7 +47296,7 @@
       <c r="FC38" s="76"/>
       <c r="FD38" s="76"/>
       <c r="FE38" s="62">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="FF38" s="109"/>
@@ -47246,13 +47318,16 @@
         <v>2364655862.43</v>
       </c>
       <c r="D39" s="62">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.36896660405246</v>
       </c>
       <c r="E39" s="77">
         <v>1994384575.28</v>
       </c>
-      <c r="F39" s="77"/>
+      <c r="F39" s="62">
+        <f t="shared" si="102"/>
+        <v>0.399963385590789</v>
+      </c>
       <c r="G39" s="77">
         <v>1450679446.32</v>
       </c>
@@ -47421,11 +47496,11 @@
       <c r="DU39" s="62"/>
       <c r="DV39" s="62"/>
       <c r="DW39" s="62">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0.149006296332567</v>
       </c>
       <c r="DX39" s="62">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0.156742860293134</v>
       </c>
       <c r="DY39" s="76"/>
@@ -47467,7 +47542,7 @@
       <c r="FC39" s="76"/>
       <c r="FD39" s="76"/>
       <c r="FE39" s="62">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="FF39" s="109"/>
@@ -47489,13 +47564,16 @@
         <v>1727329107.54</v>
       </c>
       <c r="D40" s="62">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.222575353222556</v>
       </c>
       <c r="E40" s="77">
         <v>1424597668.63</v>
       </c>
-      <c r="F40" s="77"/>
+      <c r="F40" s="62">
+        <f t="shared" si="102"/>
+        <v>0.258573638814367</v>
+      </c>
       <c r="G40" s="77">
         <v>1083250464.25</v>
       </c>
@@ -47664,11 +47742,11 @@
       <c r="DU40" s="62"/>
       <c r="DV40" s="62"/>
       <c r="DW40" s="62">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0.142755859715348</v>
       </c>
       <c r="DX40" s="62">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0.148191511322247</v>
       </c>
       <c r="DY40" s="76"/>
@@ -47710,7 +47788,7 @@
       <c r="FC40" s="76"/>
       <c r="FD40" s="76"/>
       <c r="FE40" s="62">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="FF40" s="109"/>
@@ -47732,13 +47810,16 @@
         <v>1412861058.41</v>
       </c>
       <c r="D41" s="62">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.325614220708547</v>
       </c>
       <c r="E41" s="77">
         <v>1131914434.48</v>
       </c>
-      <c r="F41" s="77"/>
+      <c r="F41" s="62" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="G41" s="77">
         <v>856522660.65</v>
       </c>
@@ -47907,11 +47988,11 @@
       <c r="DU41" s="62"/>
       <c r="DV41" s="62"/>
       <c r="DW41" s="62">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0.141954589266454</v>
       </c>
       <c r="DX41" s="62">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0.147230161455892</v>
       </c>
       <c r="DY41" s="76"/>
@@ -47953,7 +48034,7 @@
       <c r="FC41" s="76"/>
       <c r="FD41" s="76"/>
       <c r="FE41" s="62">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="FF41" s="109"/>
@@ -47975,11 +48056,14 @@
         <v>1065816160.04</v>
       </c>
       <c r="D42" s="62">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.0832576082351315</v>
       </c>
       <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
+      <c r="F42" s="62" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="G42" s="77"/>
       <c r="H42" s="77"/>
       <c r="I42" s="4"/>
@@ -48141,7 +48225,7 @@
       <c r="FC42" s="76"/>
       <c r="FD42" s="76"/>
       <c r="FE42" s="62">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="FF42" s="109"/>
@@ -48164,7 +48248,10 @@
       </c>
       <c r="D43" s="62"/>
       <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
+      <c r="F43" s="62" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="G43" s="77"/>
       <c r="H43" s="77"/>
       <c r="I43" s="4"/>
@@ -48326,7 +48413,7 @@
       <c r="FC43" s="76"/>
       <c r="FD43" s="76"/>
       <c r="FE43" s="62">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="FF43" s="109"/>
@@ -48347,7 +48434,10 @@
       <c r="C44" s="77"/>
       <c r="D44" s="62"/>
       <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
+      <c r="F44" s="62" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="G44" s="77"/>
       <c r="H44" s="77"/>
       <c r="I44" s="4"/>
@@ -48509,7 +48599,7 @@
       <c r="FC44" s="76"/>
       <c r="FD44" s="76"/>
       <c r="FE44" s="62" t="e">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FF44" s="109"/>
@@ -48530,7 +48620,10 @@
       <c r="C45" s="77"/>
       <c r="D45" s="62"/>
       <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
+      <c r="F45" s="62" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="G45" s="77"/>
       <c r="H45" s="77"/>
       <c r="I45" s="4"/>
@@ -48692,7 +48785,7 @@
       <c r="FC45" s="76"/>
       <c r="FD45" s="76"/>
       <c r="FE45" s="62" t="e">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FF45" s="109"/>
@@ -48713,7 +48806,10 @@
       <c r="C46" s="77"/>
       <c r="D46" s="62"/>
       <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
+      <c r="F46" s="62" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="G46" s="77"/>
       <c r="H46" s="77"/>
       <c r="I46" s="4"/>
@@ -48875,7 +48971,7 @@
       <c r="FC46" s="76"/>
       <c r="FD46" s="76"/>
       <c r="FE46" s="62" t="e">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FF46" s="109"/>
@@ -48896,7 +48992,10 @@
       <c r="C47" s="77"/>
       <c r="D47" s="62"/>
       <c r="E47" s="77"/>
-      <c r="F47" s="77"/>
+      <c r="F47" s="62" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="G47" s="77"/>
       <c r="H47" s="77"/>
       <c r="I47" s="4"/>
@@ -49058,7 +49157,7 @@
       <c r="FC47" s="76"/>
       <c r="FD47" s="76"/>
       <c r="FE47" s="62" t="e">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>#DIV/0!</v>
       </c>
       <c r="FF47" s="109"/>
@@ -49127,21 +49226,22 @@
   <sheetPr/>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="9.23076923076923" style="1"/>
-    <col min="2" max="3" width="13.4615384615385" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.4615384615385" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.9326923076923" style="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="59" customWidth="1"/>
     <col min="6" max="6" width="7.30769230769231" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.65384615384615" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.3846153846154" style="1" customWidth="1"/>
     <col min="9" max="10" width="16.2307692307692" style="1"/>
-    <col min="11" max="11" width="12.9230769230769" style="60"/>
+    <col min="11" max="11" width="11.7307692307692" style="60" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">

--- a/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/食品饮料行业/食品_调味品_肉制品_休闲食品.xlsx
+++ b/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/食品饮料行业/食品_调味品_肉制品_休闲食品.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27240" windowHeight="12760" activeTab="1"/>
+    <workbookView windowWidth="27240" windowHeight="12760"/>
   </bookViews>
   <sheets>
     <sheet name="资产表分析" sheetId="1" r:id="rId1"/>
     <sheet name="利润表分析" sheetId="4" r:id="rId2"/>
-    <sheet name="利润分配情况" sheetId="5" r:id="rId3"/>
-    <sheet name="收购情况" sheetId="9" r:id="rId4"/>
-    <sheet name="企业管理" sheetId="10" r:id="rId5"/>
-    <sheet name="经营政策和竞争优势分析" sheetId="3" r:id="rId6"/>
-    <sheet name="经营模式" sheetId="7" r:id="rId7"/>
-    <sheet name="财务报告的完整性和公平性" sheetId="11" r:id="rId8"/>
-    <sheet name="管理层" sheetId="15" r:id="rId9"/>
-    <sheet name="董事会成员构成及持股情况" sheetId="12" r:id="rId10"/>
-    <sheet name="监事会成员构成及持股情况" sheetId="14" r:id="rId11"/>
-    <sheet name="经营原则" sheetId="13" r:id="rId12"/>
-    <sheet name="营业成本" sheetId="16" r:id="rId13"/>
-    <sheet name="售价" sheetId="17" r:id="rId14"/>
+    <sheet name="经营现金流量表分析" sheetId="18" r:id="rId3"/>
+    <sheet name="利润分配情况" sheetId="5" r:id="rId4"/>
+    <sheet name="收购情况" sheetId="9" r:id="rId5"/>
+    <sheet name="企业管理" sheetId="10" r:id="rId6"/>
+    <sheet name="经营政策和竞争优势分析" sheetId="3" r:id="rId7"/>
+    <sheet name="经营模式" sheetId="7" r:id="rId8"/>
+    <sheet name="财务报告的完整性和公平性" sheetId="11" r:id="rId9"/>
+    <sheet name="管理层" sheetId="15" r:id="rId10"/>
+    <sheet name="董事会成员构成及持股情况" sheetId="12" r:id="rId11"/>
+    <sheet name="监事会成员构成及持股情况" sheetId="14" r:id="rId12"/>
+    <sheet name="经营原则" sheetId="13" r:id="rId13"/>
+    <sheet name="营业成本" sheetId="16" r:id="rId14"/>
+    <sheet name="售价" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -4534,12 +4535,12 @@
   <sheetPr/>
   <dimension ref="A1:DO182"/>
   <sheetViews>
-    <sheetView zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BB5" sqref="BB5"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -4633,10 +4634,10 @@
       <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="156" t="s">
+      <c r="D1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="101" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="36" t="s">
@@ -4928,8 +4929,8 @@
       <c r="A2" s="14"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="15"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="101"/>
       <c r="F2" s="36"/>
       <c r="G2" s="53"/>
       <c r="H2" s="53"/>
@@ -33395,6 +33396,1310 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:G100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25:C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="15.1538461538462" customWidth="1"/>
+    <col min="3" max="3" width="24.8461538461538" customWidth="1"/>
+    <col min="4" max="4" width="9.61538461538461"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="51" spans="1:7">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="13">
+        <v>2022</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" ht="17" spans="1:7">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="13"/>
+      <c r="B5" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="13"/>
+      <c r="B6" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="13"/>
+      <c r="B7" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="13">
+        <v>2021</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" ht="17" spans="1:7">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>392</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="13"/>
+      <c r="B16" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="13"/>
+      <c r="B17" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="13">
+        <v>2020</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" ht="17" spans="1:7">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>392</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="13"/>
+      <c r="B26" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="13"/>
+      <c r="B27" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" ht="17" spans="1:7">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="13"/>
+      <c r="B35" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="13"/>
+      <c r="B36" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="13"/>
+      <c r="B37" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="13">
+        <v>2018</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+    </row>
+    <row r="43" ht="17" spans="1:7">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="13"/>
+      <c r="B45" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="13"/>
+      <c r="B46" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="13"/>
+      <c r="B47" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="13"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="13"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="13"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="13"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="26">
+        <v>2017</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+    </row>
+    <row r="53" ht="17" spans="1:7">
+      <c r="A53" s="27"/>
+      <c r="B53" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="27"/>
+      <c r="B54" s="36" t="s">
+        <v>385</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="27"/>
+      <c r="B55" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="27"/>
+      <c r="B56" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="27"/>
+      <c r="B57" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="26">
+        <v>2016</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+    </row>
+    <row r="59" ht="17" spans="1:7">
+      <c r="A59" s="27"/>
+      <c r="B59" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="27"/>
+      <c r="B60" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="27"/>
+      <c r="B61" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="27"/>
+      <c r="B62" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="27"/>
+      <c r="B63" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+    </row>
+    <row r="64" ht="17" spans="1:7">
+      <c r="A64" s="27"/>
+      <c r="B64" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+    </row>
+    <row r="65" ht="17" spans="1:7">
+      <c r="A65" s="27"/>
+      <c r="B65" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+    </row>
+    <row r="66" ht="17" spans="1:7">
+      <c r="A66" s="27"/>
+      <c r="B66" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+    </row>
+    <row r="67" ht="17" spans="1:7">
+      <c r="A67" s="27"/>
+      <c r="B67" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+    </row>
+    <row r="68" ht="17" spans="1:7">
+      <c r="A68" s="27"/>
+      <c r="B68" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="28"/>
+      <c r="B69" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="13">
+        <v>2015</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+    </row>
+    <row r="71" ht="17" spans="1:7">
+      <c r="A71" s="13"/>
+      <c r="B71" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="13"/>
+      <c r="B72" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="13"/>
+      <c r="B73" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="13"/>
+      <c r="B74" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+    </row>
+    <row r="75" ht="17" spans="1:7">
+      <c r="A75" s="13"/>
+      <c r="B75" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+    </row>
+    <row r="76" ht="17" spans="1:7">
+      <c r="A76" s="13"/>
+      <c r="B76" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+    </row>
+    <row r="77" ht="17" spans="1:7">
+      <c r="A77" s="13"/>
+      <c r="B77" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+    </row>
+    <row r="78" ht="17" spans="1:7">
+      <c r="A78" s="13"/>
+      <c r="B78" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+    </row>
+    <row r="79" ht="17" spans="1:7">
+      <c r="A79" s="13"/>
+      <c r="B79" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="13"/>
+      <c r="B80" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="13">
+        <v>2014</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+    </row>
+    <row r="82" ht="17" spans="1:7">
+      <c r="A82" s="13"/>
+      <c r="B82" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="13"/>
+      <c r="B83" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="13"/>
+      <c r="B84" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+    </row>
+    <row r="85" ht="17" spans="1:7">
+      <c r="A85" s="13"/>
+      <c r="B85" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="13"/>
+      <c r="B86" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="13"/>
+      <c r="B87" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="D87" s="39">
+        <v>875772</v>
+      </c>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14">
+        <v>39.87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="13"/>
+      <c r="B88" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="13"/>
+      <c r="B89" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="13"/>
+      <c r="B90" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="13">
+        <v>2013</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+    </row>
+    <row r="92" ht="17" spans="1:7">
+      <c r="A92" s="13"/>
+      <c r="B92" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="13"/>
+      <c r="B93" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="13"/>
+      <c r="B94" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+    </row>
+    <row r="95" ht="17" spans="1:7">
+      <c r="A95" s="13"/>
+      <c r="B95" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="13"/>
+      <c r="B96" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="13"/>
+      <c r="B97" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="D97" s="17">
+        <v>462164</v>
+      </c>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13">
+        <v>35.34</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="13"/>
+      <c r="B98" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D98" s="17">
+        <v>2701775</v>
+      </c>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13">
+        <v>45.48</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="13"/>
+      <c r="B99" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D99" s="17">
+        <v>1201627</v>
+      </c>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13">
+        <v>30.84</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="13"/>
+      <c r="B100" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D100" s="17">
+        <v>2630565</v>
+      </c>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13">
+        <v>17.93</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="A42:A51"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="A58:A69"/>
+    <mergeCell ref="A70:A80"/>
+    <mergeCell ref="A81:A90"/>
+    <mergeCell ref="A91:A100"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H119"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
@@ -35537,7 +36842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G103"/>
@@ -36696,7 +38001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G1"/>
@@ -36745,7 +38050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N15"/>
@@ -37133,7 +38438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M15"/>
@@ -37527,12 +38832,12 @@
   <sheetPr/>
   <dimension ref="A1:GD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="FI3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="FN11" sqref="FN11"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -53534,6 +54839,22 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -54342,7 +55663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H20"/>
@@ -54753,7 +56074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:O3"/>
@@ -54855,7 +56176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G102"/>
@@ -55957,7 +57278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G3"/>
@@ -56028,7 +57349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:O12"/>
@@ -56224,1308 +57545,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G100"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25:C28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
-  <cols>
-    <col min="2" max="2" width="15.1538461538462" customWidth="1"/>
-    <col min="3" max="3" width="24.8461538461538" customWidth="1"/>
-    <col min="4" max="4" width="9.61538461538461"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="51" spans="1:7">
-      <c r="A1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="13">
-        <v>2022</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>382</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" ht="17" spans="1:7">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>384</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="13"/>
-      <c r="B5" s="22" t="s">
-        <v>387</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="13"/>
-      <c r="B6" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="13"/>
-      <c r="B7" s="36" t="s">
-        <v>389</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>391</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="13">
-        <v>2021</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>382</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" ht="17" spans="1:7">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>392</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="13"/>
-      <c r="B16" s="36" t="s">
-        <v>388</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="13"/>
-      <c r="B17" s="36" t="s">
-        <v>389</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="13">
-        <v>2020</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>382</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" ht="17" spans="1:7">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>392</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="13"/>
-      <c r="B26" s="36" t="s">
-        <v>388</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="13"/>
-      <c r="B27" s="36" t="s">
-        <v>389</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="13">
-        <v>2019</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" ht="17" spans="1:7">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="13"/>
-      <c r="B35" s="36" t="s">
-        <v>388</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="13"/>
-      <c r="B36" s="36" t="s">
-        <v>389</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="13"/>
-      <c r="B37" s="36" t="s">
-        <v>394</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="13">
-        <v>2018</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-    </row>
-    <row r="43" ht="17" spans="1:7">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="13"/>
-      <c r="B45" s="36" t="s">
-        <v>388</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="13"/>
-      <c r="B46" s="36" t="s">
-        <v>389</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="13"/>
-      <c r="B47" s="36" t="s">
-        <v>394</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="13"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="13"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="13"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="13"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="26">
-        <v>2017</v>
-      </c>
-      <c r="B52" s="36" t="s">
-        <v>381</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-    </row>
-    <row r="53" ht="17" spans="1:7">
-      <c r="A53" s="27"/>
-      <c r="B53" s="36" t="s">
-        <v>383</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="27"/>
-      <c r="B54" s="36" t="s">
-        <v>385</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="27"/>
-      <c r="B55" s="36" t="s">
-        <v>388</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="27"/>
-      <c r="B56" s="36" t="s">
-        <v>389</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="27"/>
-      <c r="B57" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="26">
-        <v>2016</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-    </row>
-    <row r="59" ht="17" spans="1:7">
-      <c r="A59" s="27"/>
-      <c r="B59" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="27"/>
-      <c r="B60" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="27"/>
-      <c r="B61" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="27"/>
-      <c r="B62" s="36" t="s">
-        <v>388</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="27"/>
-      <c r="B63" s="22" t="s">
-        <v>389</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-    </row>
-    <row r="64" ht="17" spans="1:7">
-      <c r="A64" s="27"/>
-      <c r="B64" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-    </row>
-    <row r="65" ht="17" spans="1:7">
-      <c r="A65" s="27"/>
-      <c r="B65" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-    </row>
-    <row r="66" ht="17" spans="1:7">
-      <c r="A66" s="27"/>
-      <c r="B66" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-    </row>
-    <row r="67" ht="17" spans="1:7">
-      <c r="A67" s="27"/>
-      <c r="B67" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-    </row>
-    <row r="68" ht="17" spans="1:7">
-      <c r="A68" s="27"/>
-      <c r="B68" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="28"/>
-      <c r="B69" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="13">
-        <v>2015</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-    </row>
-    <row r="71" ht="17" spans="1:7">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="13"/>
-      <c r="B74" s="22" t="s">
-        <v>388</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-    </row>
-    <row r="75" ht="17" spans="1:7">
-      <c r="A75" s="13"/>
-      <c r="B75" s="20" t="s">
-        <v>397</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-    </row>
-    <row r="76" ht="17" spans="1:7">
-      <c r="A76" s="13"/>
-      <c r="B76" s="20" t="s">
-        <v>399</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-    </row>
-    <row r="77" ht="17" spans="1:7">
-      <c r="A77" s="13"/>
-      <c r="B77" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-    </row>
-    <row r="78" ht="17" spans="1:7">
-      <c r="A78" s="13"/>
-      <c r="B78" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-    </row>
-    <row r="79" ht="17" spans="1:7">
-      <c r="A79" s="13"/>
-      <c r="B79" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="13"/>
-      <c r="B80" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="13">
-        <v>2014</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-    </row>
-    <row r="82" ht="17" spans="1:7">
-      <c r="A82" s="13"/>
-      <c r="B82" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="13"/>
-      <c r="B83" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="13"/>
-      <c r="B84" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-    </row>
-    <row r="85" ht="17" spans="1:7">
-      <c r="A85" s="13"/>
-      <c r="B85" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="13"/>
-      <c r="B86" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="13"/>
-      <c r="B87" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="D87" s="39">
-        <v>875772</v>
-      </c>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14">
-        <v>39.87</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="13"/>
-      <c r="B88" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="13"/>
-      <c r="B89" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="13"/>
-      <c r="B90" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="13">
-        <v>2013</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-    </row>
-    <row r="92" ht="17" spans="1:7">
-      <c r="A92" s="13"/>
-      <c r="B92" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="13"/>
-      <c r="B93" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="13"/>
-      <c r="B94" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-    </row>
-    <row r="95" ht="17" spans="1:7">
-      <c r="A95" s="13"/>
-      <c r="B95" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="13"/>
-      <c r="B96" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="13"/>
-      <c r="B97" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="C97" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="D97" s="17">
-        <v>462164</v>
-      </c>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13">
-        <v>35.34</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="13"/>
-      <c r="B98" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="D98" s="17">
-        <v>2701775</v>
-      </c>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13">
-        <v>45.48</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="13"/>
-      <c r="B99" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="C99" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="D99" s="17">
-        <v>1201627</v>
-      </c>
-      <c r="E99" s="13"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13">
-        <v>30.84</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="13"/>
-      <c r="B100" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="C100" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="D100" s="17">
-        <v>2630565</v>
-      </c>
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13">
-        <v>17.93</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="A42:A51"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="A58:A69"/>
-    <mergeCell ref="A70:A80"/>
-    <mergeCell ref="A81:A90"/>
-    <mergeCell ref="A91:A100"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>